--- a/file/input/model_Q124/output/yoy_pearson_corr.xlsx
+++ b/file/input/model_Q124/output/yoy_pearson_corr.xlsx
@@ -46443,121 +46443,125 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3939315629660353</v>
+        <v>-0.02217905122505202</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9297596642978354</v>
+        <v>0.9042465273629169</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8771548837190046</v>
+        <v>0.7861399649989612</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9123711122631196</v>
+        <v>0.9514527072974365</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.7897353035718225</v>
+        <v>-0.8483621484505867</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6852199593676083</v>
+        <v>0.7083799547683671</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9661190419368674</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>0.8920584586006671</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.4053530776079743</v>
+      </c>
       <c r="K2" t="n">
-        <v>0.5591118278951188</v>
+        <v>0.6166793227713704</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.2077180682517142</v>
+        <v>-0.4260496926245638</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02989939858849121</v>
+        <v>0.1557012465132961</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9612183414955787</v>
-      </c>
-      <c r="O2" t="inlineStr"/>
+        <v>0.7829893863511302</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.2111956274007584</v>
+      </c>
       <c r="P2" t="n">
-        <v>0.3416339605286374</v>
+        <v>0.5653013467236659</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.6022189475647169</v>
+        <v>-0.6009871924081159</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2243230812154211</v>
+        <v>0.2690466493106065</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9202570854122302</v>
+        <v>0.6033859951950726</v>
       </c>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="n">
-        <v>0.508359354737148</v>
+        <v>0.5172575545846155</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.8246642260025686</v>
+        <v>-0.824059841842672</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.5700498906270035</v>
+        <v>-0.6206661880658116</v>
       </c>
       <c r="X2" t="n">
-        <v>0.9194055327772663</v>
+        <v>0.8873646760581346</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.9219115323390257</v>
+        <v>0.809486448654986</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.7174480357447496</v>
+        <v>0.6620259293913815</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.1655076996599956</v>
+        <v>0.4435294074778406</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.6988917225681783</v>
+        <v>-0.654210886938371</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.9707406114267629</v>
+        <v>0.9013297925725027</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.7575291026014371</v>
+        <v>0.583819731541244</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.6025805774536144</v>
+        <v>0.6757727631651174</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.7516828919278921</v>
+        <v>-0.3139004883786873</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.8270640278069428</v>
+        <v>-0.9053066855883093</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.9288173486821032</v>
+        <v>0.7958935356726932</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.8261279826073337</v>
+        <v>0.8249971043616722</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.7198408380869323</v>
+        <v>0.7160197061818256</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.2054660471668241</v>
+        <v>-0.4798886969506919</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.09803373677766648</v>
+        <v>-0.08020951230180005</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.7777087104848486</v>
+        <v>0.7399541557733065</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.8131393684905133</v>
+        <v>0.858197022778817</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.4172549752175861</v>
+        <v>0.6084157171640199</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.1572963857103359</v>
+        <v>-0.2226202209724706</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.8792509603853376</v>
+        <v>0.2911620858227987</v>
       </c>
     </row>
     <row r="3">
@@ -46567,124 +46571,128 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3939315629660353</v>
+        <v>-0.02217905122505202</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6840545492727007</v>
+        <v>0.2979966191181145</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03504825038430819</v>
+        <v>-0.3753395057018212</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1722204206734537</v>
+        <v>-0.1443287164880696</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.03067603740289482</v>
+        <v>0.2971565560911822</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4767448458290825</v>
+        <v>0.2645861548618196</v>
       </c>
       <c r="I3" t="n">
-        <v>0.485017200855561</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>-0.05826890655852189</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.3439319262202273</v>
+      </c>
       <c r="K3" t="n">
-        <v>0.4375167893331825</v>
+        <v>-0.1405315655366216</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.2310448824353326</v>
+        <v>0.1270607687913693</v>
       </c>
       <c r="M3" t="n">
-        <v>0.003756178023595659</v>
+        <v>-0.0976106131582709</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2284524216890933</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
+        <v>-0.2851798866030473</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.1763740008107584</v>
+      </c>
       <c r="P3" t="n">
-        <v>0.4119184920436157</v>
+        <v>0.02131843058494665</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.6669081833338291</v>
+        <v>-0.4473056733175449</v>
       </c>
       <c r="R3" t="n">
-        <v>0.07972981751832946</v>
+        <v>-0.01237254781492603</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2927617846291987</v>
+        <v>-0.2665913618136236</v>
       </c>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>0.1868483850922787</v>
+        <v>0.03419436044330394</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.5896942192959396</v>
+        <v>-0.2654434094872126</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.5738632073652831</v>
+        <v>-0.3154496836619554</v>
       </c>
       <c r="X3" t="n">
-        <v>0.6883728071498745</v>
+        <v>0.3731272368848868</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1679346349726306</v>
+        <v>-0.3222902545905411</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.1366836013251978</v>
+        <v>0.04936877055337181</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.4927142753013626</v>
+        <v>-0.6048807364799629</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0.7850934563431058</v>
+        <v>-0.4836731630149822</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.4958327224324159</v>
+        <v>-0.03188082967781902</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.7034356182821651</v>
+        <v>-0.1591234475039942</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.5427373798796427</v>
+        <v>0.07461278901303887</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.5186085628875268</v>
+        <v>-0.5074768076280668</v>
       </c>
       <c r="AG3" t="n">
-        <v>-0.1622391320776238</v>
+        <v>0.1925840792157015</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.2981840310913993</v>
+        <v>-0.2263055506937729</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.6139915167665252</v>
+        <v>0.1961712578114073</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.5141534303982338</v>
+        <v>0.2276847662850634</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.4716068944148606</v>
+        <v>0.5920752073233532</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.1030064906053502</v>
+        <v>0.2297542567292519</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.6291879975343828</v>
+        <v>0.04076054753135585</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.7056627910414573</v>
+        <v>0.1598061892445151</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.2328147831768357</v>
+        <v>-0.07948461523532933</v>
       </c>
       <c r="AP3" t="n">
-        <v>-0.194747079037545</v>
+        <v>-0.08378002781617358</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.6473778059365618</v>
+        <v>0.7117983453687368</v>
       </c>
     </row>
     <row r="4">
@@ -46694,124 +46702,128 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9297596642978354</v>
+        <v>0.9042465273629169</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6840545492727007</v>
+        <v>0.2979966191181145</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7007068999252734</v>
+        <v>0.7107346661350396</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7504135546979591</v>
+        <v>0.7853097410455624</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.6306992907828949</v>
+        <v>-0.7523237735080111</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7575431806464772</v>
+        <v>0.744675819474781</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9464784380242683</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
+        <v>0.9039953016909736</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4451496947508986</v>
+      </c>
       <c r="K4" t="n">
-        <v>0.6428631133016814</v>
+        <v>0.6933517620515088</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.3169640716293292</v>
+        <v>-0.5196692409406778</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.03045183389920513</v>
+        <v>0.1026584161975862</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8404890981844361</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
+        <v>0.7612270967854458</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.2465139337561032</v>
+      </c>
       <c r="P4" t="n">
-        <v>0.3876290765237868</v>
+        <v>0.5852914102504491</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.7788030962318113</v>
+        <v>-0.788980833660495</v>
       </c>
       <c r="R4" t="n">
-        <v>0.261830624450843</v>
+        <v>0.3218015368160738</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8149218943347964</v>
+        <v>0.6475992059759027</v>
       </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>0.4877222778187977</v>
+        <v>0.5454482449246805</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.8432726315880487</v>
+        <v>-0.8809428690319263</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.6672565954839764</v>
+        <v>-0.7262188128464582</v>
       </c>
       <c r="X4" t="n">
-        <v>0.9965569998384143</v>
+        <v>0.9894160638239029</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.7973285359476976</v>
+        <v>0.7529467114023181</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.6705276445886603</v>
+        <v>0.6096683757870085</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.09885588390891038</v>
+        <v>0.2183599636694117</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.846531542672592</v>
+        <v>-0.8542243701925325</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.947840150397538</v>
+        <v>0.9137990808482307</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.8727369158847927</v>
+        <v>0.6619097427931914</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.6767845905060431</v>
+        <v>0.7589441052371204</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.7446959216495409</v>
+        <v>-0.3169149381030428</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0.7402507144349735</v>
+        <v>-0.8018349611365162</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.861523130805854</v>
+        <v>0.7974215972489472</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.8970046715075676</v>
+        <v>0.9153073946575639</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.7247257141108466</v>
+        <v>0.7714403491055757</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.05789293901878883</v>
+        <v>-0.2605440937467826</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.1709516287049389</v>
+        <v>-0.07004523145055923</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.8684772063504029</v>
+        <v>0.845353752810346</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.9316341835360638</v>
+        <v>0.9355186437344714</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.4243725950727437</v>
+        <v>0.5940444183376378</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0.26509711423948</v>
+        <v>-0.3300611981087113</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.9246112111869763</v>
+        <v>0.4759232623132608</v>
       </c>
     </row>
     <row r="5">
@@ -46821,124 +46833,128 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8771548837190046</v>
+        <v>0.7861399649989612</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03504825038430819</v>
+        <v>-0.3753395057018212</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7007068999252734</v>
+        <v>0.7107346661350396</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.92969132021935</v>
+        <v>0.7616097820249456</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.9390553135094983</v>
+        <v>-0.9198039792965096</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4833369024625871</v>
+        <v>0.4023642699504152</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8582920607712284</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
+        <v>0.9215671795333966</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.8322884808997514</v>
+      </c>
       <c r="K5" t="n">
-        <v>0.4954280826973028</v>
+        <v>0.8723159186479268</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.1022809164136</v>
+        <v>-0.6538560980087714</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1013579266850849</v>
+        <v>0.2662873859570477</v>
       </c>
       <c r="N5" t="n">
-        <v>0.9381983487523289</v>
-      </c>
-      <c r="O5" t="inlineStr"/>
+        <v>0.9832926195831677</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.4658554245640429</v>
+      </c>
       <c r="P5" t="n">
-        <v>0.08659865485012282</v>
+        <v>0.613165914979462</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.3149967437788638</v>
+        <v>-0.3905063573993998</v>
       </c>
       <c r="R5" t="n">
-        <v>0.15673221957935</v>
+        <v>0.2454793495523839</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8725041704758754</v>
+        <v>0.9227149044627125</v>
       </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>0.5172121047371886</v>
+        <v>0.4626625605758292</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.5672687781823448</v>
+        <v>-0.6246573643464578</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.2661492492096561</v>
+        <v>-0.4465525561689108</v>
       </c>
       <c r="X5" t="n">
-        <v>0.6731372468178775</v>
+        <v>0.617971966564919</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.9699661782000887</v>
+        <v>0.9951081178134725</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.7966597789511537</v>
+        <v>0.3727700668395206</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.507904675549946</v>
+        <v>0.6592993307340189</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.4990722679121487</v>
+        <v>-0.5448542539379676</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.8540755177143077</v>
+        <v>0.9072432453000039</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.4421479059274279</v>
+        <v>0.8713642417402149</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.2409799510967097</v>
+        <v>0.6909695016974176</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.5263665546755094</v>
+        <v>0.2084636638642753</v>
       </c>
       <c r="AG5" t="n">
-        <v>-0.7615225613282612</v>
+        <v>-0.8012534839311967</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.8833249117540052</v>
+        <v>0.9626376360353491</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.6160274742549717</v>
+        <v>0.7310469464921822</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.6351602764785991</v>
+        <v>0.6162870016519733</v>
       </c>
       <c r="AK5" t="n">
-        <v>-0.5432298837537674</v>
+        <v>-0.6885830413426246</v>
       </c>
       <c r="AL5" t="n">
-        <v>-0.01420597484778817</v>
+        <v>-0.386776704190233</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.5003496248333925</v>
+        <v>0.8302860589607656</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.5862183389394523</v>
+        <v>0.800358430820586</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.3791913360996117</v>
+        <v>0.6456982230899645</v>
       </c>
       <c r="AP5" t="n">
-        <v>-0.06771634595284934</v>
+        <v>-0.2276284719610393</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.6274975996823349</v>
+        <v>-0.1843858827050776</v>
       </c>
     </row>
     <row r="6">
@@ -46948,124 +46964,128 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9123711122631196</v>
+        <v>0.9514527072974365</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1722204206734537</v>
+        <v>-0.1443287164880696</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7504135546979591</v>
+        <v>0.7853097410455624</v>
       </c>
       <c r="E6" t="n">
-        <v>0.92969132021935</v>
+        <v>0.7616097820249456</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.8530985229848249</v>
+        <v>-0.8558252205335569</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4875593924451113</v>
+        <v>0.5885875237939743</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8767061206824427</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+        <v>0.8301026615128304</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.3496584070018751</v>
+      </c>
       <c r="K6" t="n">
-        <v>0.3320471262043417</v>
+        <v>0.4918318432855522</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.08882671582962497</v>
+        <v>-0.3397914248197463</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1707526775546021</v>
+        <v>0.2419170408995974</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9236542314181185</v>
-      </c>
-      <c r="O6" t="inlineStr"/>
+        <v>0.7335832353168013</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.1702182388976256</v>
+      </c>
       <c r="P6" t="n">
-        <v>0.3762883725619135</v>
+        <v>0.5587687787942234</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.2751358549854663</v>
+        <v>-0.3700238425075654</v>
       </c>
       <c r="R6" t="n">
-        <v>0.09101258152900023</v>
+        <v>0.1663427737256324</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8989295172414068</v>
+        <v>0.5496531496175076</v>
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>0.3743967582860824</v>
+        <v>0.4134308916109309</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.6997119335023892</v>
+        <v>-0.7360940594460069</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.3442950251211659</v>
+        <v>-0.4609519044239292</v>
       </c>
       <c r="X6" t="n">
-        <v>0.7155942841733625</v>
+        <v>0.7532873024516835</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.8867208419313606</v>
+        <v>0.7615282015166933</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.5971128132938049</v>
+        <v>0.6009565049119793</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.4699669372945154</v>
+        <v>0.6088756776075575</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.5867567958166717</v>
+        <v>-0.5664822457666254</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.8920058291954527</v>
+        <v>0.8450672951790116</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.5019685744901686</v>
+        <v>0.480318376354785</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.2986281077938158</v>
+        <v>0.4916847318350925</v>
       </c>
       <c r="AF6" t="n">
-        <v>-0.6578112370579706</v>
+        <v>-0.2889600678499274</v>
       </c>
       <c r="AG6" t="n">
-        <v>-0.7311357550975036</v>
+        <v>-0.8476197771222892</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.8373146226208076</v>
+        <v>0.7305048450594464</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.6759520351700542</v>
+        <v>0.7199433106774052</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.7561135391967908</v>
+        <v>0.7239770021907248</v>
       </c>
       <c r="AK6" t="n">
-        <v>-0.5017235323391548</v>
+        <v>-0.6363818656279825</v>
       </c>
       <c r="AL6" t="n">
-        <v>-0.07001481912045587</v>
+        <v>-0.1498654350707992</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.5283795751255416</v>
+        <v>0.594255913099766</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.6029896885881146</v>
+        <v>0.727715462046156</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.2716772010710918</v>
+        <v>0.5130056079152677</v>
       </c>
       <c r="AP6" t="n">
-        <v>-0.04630198139983461</v>
+        <v>-0.1364910605120722</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.7431697037621851</v>
+        <v>0.2360865756601652</v>
       </c>
     </row>
     <row r="7">
@@ -47075,124 +47095,128 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.7897353035718225</v>
+        <v>-0.8483621484505867</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.03067603740289482</v>
+        <v>0.2971565560911822</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.6306992907828949</v>
+        <v>-0.7523237735080111</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.9390553135094983</v>
+        <v>-0.9198039792965096</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.8530985229848249</v>
+        <v>-0.8558252205335569</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.3774154909554678</v>
+        <v>-0.4460118308466766</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.7690733612139696</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
+        <v>-0.8919296003131875</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.6250888259248464</v>
+      </c>
       <c r="K7" t="n">
-        <v>-0.4139199435655824</v>
+        <v>-0.7372297488700404</v>
       </c>
       <c r="L7" t="n">
-        <v>0.05947688384688149</v>
+        <v>0.5035096033466708</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.1015511889986293</v>
+        <v>-0.2456326798485822</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.8463129273186435</v>
-      </c>
-      <c r="O7" t="inlineStr"/>
+        <v>-0.8910051184107582</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.3327289358480297</v>
+      </c>
       <c r="P7" t="n">
-        <v>0.004565583610329624</v>
+        <v>-0.4637327476431808</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1958014665882671</v>
+        <v>0.3494095892869221</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.1201879173663547</v>
+        <v>-0.2263896754238143</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.7681524173698854</v>
+        <v>-0.7777811166883983</v>
       </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
-        <v>-0.4283772852310507</v>
+        <v>-0.4908686035121885</v>
       </c>
       <c r="V7" t="n">
-        <v>0.4820572347179985</v>
+        <v>0.6385548153922289</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1580881727487868</v>
+        <v>0.3844503901875064</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.6043679975071059</v>
+        <v>-0.6850514242863559</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.8911648512036102</v>
+        <v>-0.9151314723843083</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.718562912296748</v>
+        <v>-0.5496249627221801</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0.6491783476277092</v>
+        <v>-0.7681332139538232</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.4407612486940591</v>
+        <v>0.5564813712401885</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0.7875755564684287</v>
+        <v>-0.8968464510605697</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.3340422434562338</v>
+        <v>-0.6903882788879239</v>
       </c>
       <c r="AE7" t="n">
-        <v>-0.1097303172713256</v>
+        <v>-0.5446586996618936</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.4535840564102694</v>
+        <v>-0.01373692037929633</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.6042081115753843</v>
+        <v>0.7877628027145492</v>
       </c>
       <c r="AH7" t="n">
-        <v>-0.7864202886526857</v>
+        <v>-0.8815640811479424</v>
       </c>
       <c r="AI7" t="n">
-        <v>-0.5077178846234341</v>
+        <v>-0.7040054936637123</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-0.6853984043790917</v>
+        <v>-0.7278065655522291</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.6825528034959898</v>
+        <v>0.7970524685512718</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.0341491752946237</v>
+        <v>0.2984704684107037</v>
       </c>
       <c r="AM7" t="n">
-        <v>-0.3744979885594087</v>
+        <v>-0.7080794465565231</v>
       </c>
       <c r="AN7" t="n">
-        <v>-0.4654907910473679</v>
+        <v>-0.7426267344993955</v>
       </c>
       <c r="AO7" t="n">
-        <v>-0.3028247488099634</v>
+        <v>-0.5887232978770267</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.0301850894305248</v>
+        <v>0.1759582184750587</v>
       </c>
       <c r="AQ7" t="n">
-        <v>-0.5317483854977069</v>
+        <v>0.001102678843193455</v>
       </c>
     </row>
     <row r="8">
@@ -47202,124 +47226,128 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6852199593676083</v>
+        <v>0.7083799547683671</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4767448458290825</v>
+        <v>0.2645861548618196</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7575431806464772</v>
+        <v>0.744675819474781</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4833369024625871</v>
+        <v>0.4023642699504152</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4875593924451113</v>
+        <v>0.5885875237939743</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3774154909554678</v>
+        <v>-0.4460118308466766</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6939669168028284</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
+        <v>0.6029234155459864</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.1063872904036249</v>
+      </c>
       <c r="K8" t="n">
-        <v>0.7363815087072244</v>
+        <v>0.4785082494043669</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.5933874971731578</v>
+        <v>-0.4851196223271523</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.6408122786310694</v>
+        <v>-0.5162276867417628</v>
       </c>
       <c r="N8" t="n">
-        <v>0.6183416551921773</v>
-      </c>
-      <c r="O8" t="inlineStr"/>
+        <v>0.4380658004038949</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-0.0161797027675601</v>
+      </c>
       <c r="P8" t="n">
-        <v>0.1094468146295017</v>
+        <v>0.2309132397287927</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.6875655799888293</v>
+        <v>-0.6869722305332803</v>
       </c>
       <c r="R8" t="n">
-        <v>0.7987942300950593</v>
+        <v>0.7588438773931032</v>
       </c>
       <c r="S8" t="n">
-        <v>0.6894780680844533</v>
+        <v>0.3103747570557872</v>
       </c>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
-        <v>0.6169663056170887</v>
+        <v>0.5866034775568227</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.4970592537516909</v>
+        <v>-0.541006226805245</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.5910654589720534</v>
+        <v>-0.6113656242603553</v>
       </c>
       <c r="X8" t="n">
-        <v>0.7796466046448843</v>
+        <v>0.7857667130521941</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.6325361351334201</v>
+        <v>0.4663898327787177</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.589851384731512</v>
+        <v>0.6256722884276696</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.2309809345471613</v>
+        <v>-0.02035870564500371</v>
       </c>
       <c r="AB8" t="n">
-        <v>-0.5990283676158957</v>
+        <v>-0.5639959550740953</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.6516323333612617</v>
+        <v>0.59291692444232</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.7796194130323767</v>
+        <v>0.3370773430174521</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.6608452706596084</v>
+        <v>0.5933215913189405</v>
       </c>
       <c r="AF8" t="n">
-        <v>-0.3458349977504995</v>
+        <v>-0.2344734372498292</v>
       </c>
       <c r="AG8" t="n">
-        <v>-0.8756122225684472</v>
+        <v>-0.8187492949743134</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.8197790720324354</v>
+        <v>0.5583596676586848</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.8878704135118348</v>
+        <v>0.7870491434381475</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.2970899516357219</v>
+        <v>0.3360476587594228</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.1997366883171651</v>
+        <v>-0.01316201373276186</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.7453382046403052</v>
+        <v>0.5754744749290888</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.8527556414476144</v>
+        <v>0.6293074618547606</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.7913884123826617</v>
+        <v>0.7198513923355291</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.6049907110215602</v>
+        <v>0.6216323310035358</v>
       </c>
       <c r="AP8" t="n">
-        <v>-0.5616192764028395</v>
+        <v>-0.545196633253722</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.647945360452758</v>
+        <v>0.4094149849431925</v>
       </c>
     </row>
     <row r="9">
@@ -47329,124 +47357,128 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9661190419368674</v>
+        <v>0.8920584586006671</v>
       </c>
       <c r="C9" t="n">
-        <v>0.485017200855561</v>
+        <v>-0.05826890655852189</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9464784380242683</v>
+        <v>0.9039953016909736</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8582920607712284</v>
+        <v>0.9215671795333966</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8767061206824427</v>
+        <v>0.8301026615128304</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.7690733612139696</v>
+        <v>-0.8919296003131875</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6939669168028284</v>
+        <v>0.6029234155459864</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0.6886993810263917</v>
+      </c>
       <c r="K9" t="n">
-        <v>0.6089482390409863</v>
+        <v>0.837538116718494</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.2173033419114927</v>
+        <v>-0.6384661323787446</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04179925354025617</v>
+        <v>0.2148489697201068</v>
       </c>
       <c r="N9" t="n">
-        <v>0.9445080707692579</v>
-      </c>
-      <c r="O9" t="inlineStr"/>
+        <v>0.9492963694186869</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.3428011935343639</v>
+      </c>
       <c r="P9" t="n">
-        <v>0.3323383207111124</v>
+        <v>0.648008726167288</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.6066113832000384</v>
+        <v>-0.5889988105191047</v>
       </c>
       <c r="R9" t="n">
-        <v>0.2391167132080303</v>
+        <v>0.2995088645770587</v>
       </c>
       <c r="S9" t="n">
-        <v>0.903023153969964</v>
+        <v>0.8533661587148311</v>
       </c>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>0.5224218657424459</v>
+        <v>0.5175410498089981</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.8470139708100407</v>
+        <v>-0.8241323475829272</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.471757322157342</v>
+        <v>-0.5659469906247403</v>
       </c>
       <c r="X9" t="n">
-        <v>0.9325073505637248</v>
+        <v>0.8450703330169174</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.9057286933694982</v>
+        <v>0.9381230604019319</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.7462682756429636</v>
+        <v>0.5127051614654639</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.1455494213020865</v>
+        <v>0.4955901694671604</v>
       </c>
       <c r="AB9" t="n">
-        <v>-0.8352785652337013</v>
+        <v>-0.7727424100171821</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.9940582758776579</v>
+        <v>0.9968801418177575</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.7459456286865003</v>
+        <v>0.8168621540412551</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.5404544864704051</v>
+        <v>0.7769534384197075</v>
       </c>
       <c r="AF9" t="n">
-        <v>-0.7711486777368107</v>
+        <v>-0.03957491611624782</v>
       </c>
       <c r="AG9" t="n">
-        <v>-0.7934920551708838</v>
+        <v>-0.8579578766443653</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.9304665837279957</v>
+        <v>0.960094964893037</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.8344628599769573</v>
+        <v>0.8587607647314079</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.7291377928957808</v>
+        <v>0.7162021250473348</v>
       </c>
       <c r="AK9" t="n">
-        <v>-0.1850746052260952</v>
+        <v>-0.5321528576078323</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.08385393563930606</v>
+        <v>-0.2602331729823484</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.7520002621071097</v>
+        <v>0.8855838958724332</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.8323106733468402</v>
+        <v>0.907075941230181</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.4294726001754898</v>
+        <v>0.6795532357023847</v>
       </c>
       <c r="AP9" t="n">
-        <v>-0.165503515243131</v>
+        <v>-0.2748578696482656</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.916641825728661</v>
+        <v>0.1726319444480972</v>
       </c>
     </row>
     <row r="10">
@@ -47455,48 +47487,130 @@
           <t>Birepo_lag1Q</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>0.4053530776079743</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.3439319262202273</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4451496947508986</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8322884808997514</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.3496584070018751</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.6250888259248464</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.1063872904036249</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.6886993810263917</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.84401451207621</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-0.698740903080022</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.2355773162463058</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.8446716139782778</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.7514691493021793</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.6005322478664173</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-0.2537299915383983</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.1907238939104683</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.9424988381774128</v>
+      </c>
       <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
+      <c r="U10" t="n">
+        <v>0.2988465517623471</v>
+      </c>
+      <c r="V10" t="n">
+        <v>-0.3929465753240303</v>
+      </c>
+      <c r="W10" t="n">
+        <v>-0.3225307154000023</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.3355702993210347</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.8214470253804164</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>-0.005199750799178581</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.4560165241922618</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>-0.4051290906014327</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.6609263769857358</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.9533273885665656</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.6067434829290417</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.5002042066656511</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>-0.4621471965235939</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.8097104478972426</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.56076143908568</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.4125843419648296</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>-0.4754649275679273</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>-0.4869192423212161</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.7518542084740272</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.5875523651294379</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.4923596749123048</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>-0.2165106547787137</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>-0.3630712407933845</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -47505,124 +47619,128 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5591118278951188</v>
+        <v>0.6166793227713704</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4375167893331825</v>
+        <v>-0.1405315655366216</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6428631133016814</v>
+        <v>0.6933517620515088</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4954280826973028</v>
+        <v>0.8723159186479268</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3320471262043417</v>
+        <v>0.4918318432855522</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.4139199435655824</v>
+        <v>-0.7372297488700404</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7363815087072244</v>
+        <v>0.4785082494043669</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6089482390409863</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
+        <v>0.837538116718494</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.84401451207621</v>
+      </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.2978314800545425</v>
+        <v>-0.7164944795438221</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.3531444247391777</v>
+        <v>0.04800710558823082</v>
       </c>
       <c r="N11" t="n">
-        <v>0.5669541423304058</v>
-      </c>
-      <c r="O11" t="inlineStr"/>
+        <v>0.8981191385461907</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.511022314630333</v>
+      </c>
       <c r="P11" t="n">
-        <v>-0.2420844058275194</v>
+        <v>0.4485653247437985</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.7035892797529634</v>
+        <v>-0.5735723064835052</v>
       </c>
       <c r="R11" t="n">
-        <v>0.488118280235615</v>
+        <v>0.4102862817450737</v>
       </c>
       <c r="S11" t="n">
-        <v>0.6346067822166163</v>
+        <v>0.9185436666709528</v>
       </c>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>0.7637126821127919</v>
+        <v>0.6117975488159465</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.3317839933870437</v>
+        <v>-0.5240532586439539</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.5376734339197231</v>
+        <v>-0.5544767479272784</v>
       </c>
       <c r="X11" t="n">
-        <v>0.6618623840199075</v>
+        <v>0.6193696059883685</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.6661968270413027</v>
+        <v>0.9023555467563102</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.7395882174180265</v>
+        <v>0.3545378534779826</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0.2141677619239771</v>
+        <v>0.3503637650315946</v>
       </c>
       <c r="AB11" t="n">
-        <v>-0.5157264465063616</v>
+        <v>-0.5935789184784188</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.5569889070902061</v>
+        <v>0.8067280606270048</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.7109512995796911</v>
+        <v>0.9201840935344248</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.6004568622326326</v>
+        <v>0.7954052583967157</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.2533465218587105</v>
+        <v>0.3116884588545296</v>
       </c>
       <c r="AG11" t="n">
-        <v>-0.6645957219507113</v>
+        <v>-0.7083517709631476</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.7314013188922786</v>
+        <v>0.923592021427225</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.6639677025052696</v>
+        <v>0.759042496256075</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.2257345577723852</v>
+        <v>0.4682108871833718</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.1814354719346075</v>
+        <v>-0.3839524343982422</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.4487630266512629</v>
+        <v>-0.2226875048347855</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.7876665620306454</v>
+        <v>0.923331088533039</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.7287720729999042</v>
+        <v>0.8211453599365757</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.7283539047208336</v>
+        <v>0.7506894687684487</v>
       </c>
       <c r="AP11" t="n">
-        <v>-0.2769153544190131</v>
+        <v>-0.3273657494794036</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.4514203464790227</v>
+        <v>-0.1493345080603625</v>
       </c>
     </row>
     <row r="12">
@@ -47632,124 +47750,128 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.2077180682517142</v>
+        <v>-0.4260496926245638</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.2310448824353326</v>
+        <v>0.1270607687913693</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.3169640716293292</v>
+        <v>-0.5196692409406778</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.1022809164136</v>
+        <v>-0.6538560980087714</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.08882671582962497</v>
+        <v>-0.3397914248197463</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05947688384688149</v>
+        <v>0.5035096033466708</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.5933874971731578</v>
+        <v>-0.4851196223271523</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2173033419114927</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
+        <v>-0.6384661323787446</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.698740903080022</v>
+      </c>
       <c r="K12" t="n">
-        <v>-0.2978314800545425</v>
+        <v>-0.7164944795438221</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5613674148067782</v>
+        <v>0.1922316259982465</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.08240817869650661</v>
-      </c>
-      <c r="O12" t="inlineStr"/>
+        <v>-0.6662316233293551</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-0.4003303857720589</v>
+      </c>
       <c r="P12" t="n">
-        <v>-0.2413243473324845</v>
+        <v>-0.5604600584460416</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.3854807560771636</v>
+        <v>0.438428909134108</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.5806632429521891</v>
+        <v>-0.5167873235260086</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.2462181240643245</v>
+        <v>-0.7283934427699248</v>
       </c>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>0.1196346207281816</v>
+        <v>-0.1053702343691502</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.01847481582432274</v>
+        <v>0.2878096144872873</v>
       </c>
       <c r="W12" t="n">
-        <v>0.3727716926054755</v>
+        <v>0.4757209928195895</v>
       </c>
       <c r="X12" t="n">
-        <v>-0.3331784103032887</v>
+        <v>-0.4602036250169261</v>
       </c>
       <c r="Y12" t="n">
-        <v>-0.2164527789630043</v>
+        <v>-0.6780376496456554</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.1930995507254723</v>
+        <v>-0.134453162225848</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.251354106899936</v>
+        <v>-0.207381323236059</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.1734636720082764</v>
+        <v>0.3897112926438855</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0.1728894097849574</v>
+        <v>-0.606851546359881</v>
       </c>
       <c r="AD12" t="n">
-        <v>-0.3995654736192913</v>
+        <v>-0.7513583412578685</v>
       </c>
       <c r="AE12" t="n">
-        <v>-0.2536637881697004</v>
+        <v>-0.6082082456686587</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.2469494882068124</v>
+        <v>-0.5424845593792488</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.448231796225065</v>
+        <v>0.5946618913176427</v>
       </c>
       <c r="AH12" t="n">
-        <v>-0.329211361517905</v>
+        <v>-0.7333780298847445</v>
       </c>
       <c r="AI12" t="n">
-        <v>-0.5801389871942393</v>
+        <v>-0.7026465437362032</v>
       </c>
       <c r="AJ12" t="n">
-        <v>-0.1589242295072285</v>
+        <v>-0.3587053310259227</v>
       </c>
       <c r="AK12" t="n">
-        <v>-0.2380089397949906</v>
+        <v>0.2321345228724395</v>
       </c>
       <c r="AL12" t="n">
-        <v>-0.6062956408961417</v>
+        <v>-0.02762748355478995</v>
       </c>
       <c r="AM12" t="n">
-        <v>-0.4682579293934087</v>
+        <v>-0.7523915710120702</v>
       </c>
       <c r="AN12" t="n">
-        <v>-0.4992371431560135</v>
+        <v>-0.6861067581475135</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.1545559586450614</v>
+        <v>-0.3354834374514534</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.9981748005266036</v>
+        <v>0.8179718963743197</v>
       </c>
       <c r="AQ12" t="n">
-        <v>-0.2005127245234067</v>
+        <v>0.156623786531491</v>
       </c>
     </row>
     <row r="13">
@@ -47759,124 +47881,128 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02989939858849121</v>
+        <v>0.1557012465132961</v>
       </c>
       <c r="C13" t="n">
-        <v>0.003756178023595659</v>
+        <v>-0.0976106131582709</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.03045183389920513</v>
+        <v>0.1026584161975862</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1013579266850849</v>
+        <v>0.2662873859570477</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1707526775546021</v>
+        <v>0.2419170408995974</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1015511889986293</v>
+        <v>-0.2456326798485822</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.6408122786310694</v>
+        <v>-0.5162276867417628</v>
       </c>
       <c r="I13" t="n">
-        <v>0.04179925354025617</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
+        <v>0.2148489697201068</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.2355773162463058</v>
+      </c>
       <c r="K13" t="n">
-        <v>-0.3531444247391777</v>
+        <v>0.04800710558823082</v>
       </c>
       <c r="L13" t="n">
-        <v>0.5613674148067782</v>
+        <v>0.1922316259982465</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.06857706846592163</v>
-      </c>
-      <c r="O13" t="inlineStr"/>
+        <v>0.253306842130278</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.1426255322536875</v>
+      </c>
       <c r="P13" t="n">
-        <v>0.3341358685684329</v>
+        <v>0.4048130838838345</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.1768767958800353</v>
+        <v>0.09018115088171862</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.9522006258816792</v>
+        <v>-0.8509172539248561</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.03883036456866795</v>
+        <v>0.2205203792590733</v>
       </c>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>-0.3658596100162025</v>
+        <v>-0.2527055584903281</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.1719647726034274</v>
+        <v>-0.2610028865656744</v>
       </c>
       <c r="W13" t="n">
-        <v>0.08342138318553782</v>
+        <v>-0.01858121479534602</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.07795648479501784</v>
+        <v>0.03238859023807985</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.02114689198284263</v>
+        <v>0.2185000328557394</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0.1433734443667295</v>
+        <v>-0.1157856963152693</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.2185422557803005</v>
+        <v>0.3089555600043977</v>
       </c>
       <c r="AB13" t="n">
-        <v>-0.05373855421450086</v>
+        <v>-0.1520308111672986</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.09693900804071406</v>
+        <v>0.2436394669537486</v>
       </c>
       <c r="AD13" t="n">
-        <v>-0.1955600752184104</v>
+        <v>0.1748971550476407</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.2550862782657836</v>
+        <v>-0.009647419929559043</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.295244918755068</v>
+        <v>-0.1237907123374277</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.4000297654064034</v>
+        <v>0.1200728148775816</v>
       </c>
       <c r="AH13" t="n">
-        <v>-0.2241211217769886</v>
+        <v>0.1119284206623682</v>
       </c>
       <c r="AI13" t="n">
-        <v>-0.3306749415307586</v>
+        <v>-0.1066086233538852</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.3090624837633419</v>
+        <v>0.3759925997860074</v>
       </c>
       <c r="AK13" t="n">
-        <v>-0.2159522779699776</v>
+        <v>-0.3092251785741046</v>
       </c>
       <c r="AL13" t="n">
-        <v>-0.9882895744480187</v>
+        <v>-0.9338401742646507</v>
       </c>
       <c r="AM13" t="n">
-        <v>-0.2668650741634374</v>
+        <v>0.03678548134774329</v>
       </c>
       <c r="AN13" t="n">
-        <v>-0.1306333634195643</v>
+        <v>0.07875328812137213</v>
       </c>
       <c r="AO13" t="n">
-        <v>-0.429684898594193</v>
+        <v>-0.1936036044085506</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.5701032659622709</v>
+        <v>0.4824974069307159</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.04681298478145776</v>
+        <v>-0.06365434880340545</v>
       </c>
     </row>
     <row r="14">
@@ -47886,124 +48012,128 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9612183414955787</v>
+        <v>0.7829893863511302</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2284524216890933</v>
+        <v>-0.2851798866030473</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8404890981844361</v>
+        <v>0.7612270967854458</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9381983487523289</v>
+        <v>0.9832926195831677</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9236542314181185</v>
+        <v>0.7335832353168013</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.8463129273186435</v>
+        <v>-0.8910051184107582</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6183416551921773</v>
+        <v>0.4380658004038949</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9445080707692579</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
+        <v>0.9492963694186869</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.8446716139782778</v>
+      </c>
       <c r="K14" t="n">
-        <v>0.5669541423304058</v>
+        <v>0.8981191385461907</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.08240817869650661</v>
+        <v>-0.6662316233293551</v>
       </c>
       <c r="M14" t="n">
-        <v>0.06857706846592163</v>
+        <v>0.253306842130278</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
-      <c r="O14" t="inlineStr"/>
+      <c r="O14" t="n">
+        <v>0.461915937955232</v>
+      </c>
       <c r="P14" t="n">
-        <v>0.2223929294964764</v>
+        <v>0.6426092200964114</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.4912968865627581</v>
+        <v>-0.4601646320269267</v>
       </c>
       <c r="R14" t="n">
-        <v>0.2059274851351305</v>
+        <v>0.2676511388294709</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9234147887387548</v>
+        <v>0.9506059692180453</v>
       </c>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="n">
-        <v>0.5749991319536223</v>
+        <v>0.4886845416422245</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.7362132545802826</v>
+        <v>-0.6851282310517842</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.4256836445691939</v>
+        <v>-0.5024340013247123</v>
       </c>
       <c r="X14" t="n">
-        <v>0.822225951837627</v>
+        <v>0.6727749016962743</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.9551442770451183</v>
+        <v>0.9858555355608341</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.7832463008617229</v>
+        <v>0.3599102875527366</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.2968660078210402</v>
+        <v>0.5826997274754638</v>
       </c>
       <c r="AB14" t="n">
-        <v>-0.644940392530217</v>
+        <v>-0.6143841284321717</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.9446228045020015</v>
+        <v>0.9379515610748218</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.6370594988004821</v>
+        <v>0.9054324845246393</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.4606948398980177</v>
+        <v>0.7612251746684277</v>
       </c>
       <c r="AF14" t="n">
-        <v>-0.6946582162492814</v>
+        <v>0.1772592478946846</v>
       </c>
       <c r="AG14" t="n">
-        <v>-0.8389361748905244</v>
+        <v>-0.801898313057879</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.9428497357409276</v>
+        <v>0.9847776847975378</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.7114272699556132</v>
+        <v>0.7618316701757076</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.6346482834848433</v>
+        <v>0.6174222782130939</v>
       </c>
       <c r="AK14" t="n">
-        <v>-0.3350052466382937</v>
+        <v>-0.6142459413430768</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.04419368324595085</v>
+        <v>-0.3800681984054089</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.6785487371773312</v>
+        <v>0.8863148661460448</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.6964372643006035</v>
+        <v>0.8235962665399426</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.4682405366167162</v>
+        <v>0.6733251335674071</v>
       </c>
       <c r="AP14" t="n">
-        <v>-0.03769759586464962</v>
+        <v>-0.2200623491159743</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.782802128906442</v>
+        <v>-0.09091404672441596</v>
       </c>
     </row>
     <row r="15">
@@ -48012,48 +48142,130 @@
           <t>Birepo_lag2Q</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>0.2111956274007584</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.1763740008107584</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.2465139337561032</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.4658554245640429</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.1702182388976256</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.3327289358480297</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.0161797027675601</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.3428011935343639</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.7514691493021793</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.511022314630333</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-0.4003303857720589</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.1426255322536875</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.461915937955232</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.4132856669768601</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>-0.135058101466448</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.1142106130895849</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.611478528680634</v>
+      </c>
       <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="inlineStr"/>
-      <c r="AM15" t="inlineStr"/>
-      <c r="AN15" t="inlineStr"/>
-      <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
+      <c r="U15" t="n">
+        <v>0.2577100775770603</v>
+      </c>
+      <c r="V15" t="n">
+        <v>-0.2076047513465349</v>
+      </c>
+      <c r="W15" t="n">
+        <v>-0.1708499590065194</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.185602857557457</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.459110997411074</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.02478276940033501</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.2427333308976012</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>-0.2573571700387436</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.3158345828942705</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.6919735266348837</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.2494755759997847</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.3042903097250925</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>-0.1874570180271936</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0.4293450712580362</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0.4104210955080782</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0.3170079191817358</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>-0.2530855341217656</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>-0.3507064973403152</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0.4324870310723507</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0.3127486288292973</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0.2446136206371771</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>-0.1223386948586814</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>-0.1932594258223564</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -48062,124 +48274,128 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3416339605286374</v>
+        <v>0.5653013467236659</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4119184920436157</v>
+        <v>0.02131843058494665</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3876290765237868</v>
+        <v>0.5852914102504491</v>
       </c>
       <c r="E16" t="n">
-        <v>0.08659865485012282</v>
+        <v>0.613165914979462</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3762883725619135</v>
+        <v>0.5587687787942234</v>
       </c>
       <c r="G16" t="n">
-        <v>0.004565583610329624</v>
+        <v>-0.4637327476431808</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1094468146295017</v>
+        <v>0.2309132397287927</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3323383207111124</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
+        <v>0.648008726167288</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.6005322478664173</v>
+      </c>
       <c r="K16" t="n">
-        <v>-0.2420844058275194</v>
+        <v>0.4485653247437985</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.2413243473324845</v>
+        <v>-0.5604600584460416</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3341358685684329</v>
+        <v>0.4048130838838345</v>
       </c>
       <c r="N16" t="n">
-        <v>0.2223929294964764</v>
-      </c>
-      <c r="O16" t="inlineStr"/>
+        <v>0.6426092200964114</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.4132856669768601</v>
+      </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.1736650659041789</v>
+        <v>-0.3155821657069331</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.2318174057034353</v>
+        <v>-0.044145017595578</v>
       </c>
       <c r="S16" t="n">
-        <v>0.2972867829566544</v>
+        <v>0.6442045527274826</v>
       </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
-        <v>-0.4375697695901322</v>
+        <v>-0.1101158207567933</v>
       </c>
       <c r="V16" t="n">
-        <v>-0.4874098158348489</v>
+        <v>-0.6242933620573025</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.3015981544991319</v>
+        <v>-0.453781801897011</v>
       </c>
       <c r="X16" t="n">
-        <v>0.3541425903210249</v>
+        <v>0.5118229433200894</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.08575403146384113</v>
+        <v>0.6078306867530843</v>
       </c>
       <c r="Z16" t="n">
-        <v>-0.1515028942089912</v>
+        <v>-0.03295754712746539</v>
       </c>
       <c r="AA16" t="n">
-        <v>-0.1383605867741467</v>
+        <v>0.2512785833437951</v>
       </c>
       <c r="AB16" t="n">
-        <v>-0.4302382682240418</v>
+        <v>-0.5569431128959601</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.3688142496645668</v>
+        <v>0.6559493113573223</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.4226947700155815</v>
+        <v>0.6833067783686384</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.2645189126660997</v>
+        <v>0.5594049772047275</v>
       </c>
       <c r="AF16" t="n">
-        <v>-0.4171207084765032</v>
+        <v>0.009892892199682734</v>
       </c>
       <c r="AG16" t="n">
-        <v>-0.1241997276230546</v>
+        <v>-0.4710312122408342</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.1278866120092773</v>
+        <v>0.5953903363029135</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.3913147430538095</v>
+        <v>0.628022036754867</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.5857849457295778</v>
+        <v>0.6819593860519062</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.1332084344320439</v>
+        <v>-0.270651298429447</v>
       </c>
       <c r="AL16" t="n">
-        <v>-0.264868176229403</v>
+        <v>-0.441803464516149</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.3051988694522556</v>
+        <v>0.633711227952509</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.3347692458343794</v>
+        <v>0.6207764971368006</v>
       </c>
       <c r="AO16" t="n">
-        <v>-0.4215288351375344</v>
+        <v>0.1131134180651483</v>
       </c>
       <c r="AP16" t="n">
-        <v>-0.2111744183567617</v>
+        <v>-0.2975209199022847</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.5205910468538311</v>
+        <v>0.08774019994914303</v>
       </c>
     </row>
     <row r="17">
@@ -48189,124 +48405,128 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.6022189475647169</v>
+        <v>-0.6009871924081159</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.6669081833338291</v>
+        <v>-0.4473056733175449</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.7788030962318113</v>
+        <v>-0.788980833660495</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.3149967437788638</v>
+        <v>-0.3905063573993998</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.2751358549854663</v>
+        <v>-0.3700238425075654</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1958014665882671</v>
+        <v>0.3494095892869221</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.6875655799888293</v>
+        <v>-0.6869722305332803</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.6066113832000384</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
+        <v>-0.5889988105191047</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-0.2537299915383983</v>
+      </c>
       <c r="K17" t="n">
-        <v>-0.7035892797529634</v>
+        <v>-0.5735723064835052</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3854807560771636</v>
+        <v>0.438428909134108</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1768767958800353</v>
+        <v>0.09018115088171862</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.4912968865627581</v>
-      </c>
-      <c r="O17" t="inlineStr"/>
+        <v>-0.4601646320269267</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-0.135058101466448</v>
+      </c>
       <c r="P17" t="n">
-        <v>-0.1736650659041789</v>
+        <v>-0.3155821657069331</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.282537626393992</v>
+        <v>-0.3236328003836725</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.430902117637195</v>
+        <v>-0.3759402282052708</v>
       </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="n">
-        <v>-0.5083180465751366</v>
+        <v>-0.5445120920498626</v>
       </c>
       <c r="V17" t="n">
-        <v>0.5177959614723149</v>
+        <v>0.57781297592408</v>
       </c>
       <c r="W17" t="n">
-        <v>0.7865184375696656</v>
+        <v>0.8082549157038846</v>
       </c>
       <c r="X17" t="n">
-        <v>-0.7971549234985321</v>
+        <v>-0.8128545039108664</v>
       </c>
       <c r="Y17" t="n">
-        <v>-0.4898933308639018</v>
+        <v>-0.4617565535333834</v>
       </c>
       <c r="Z17" t="n">
-        <v>-0.622592876195416</v>
+        <v>-0.5945950278874567</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.6188029446348136</v>
+        <v>0.3315395241322358</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.5653668285590461</v>
+        <v>0.6062977230303225</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.581928060209448</v>
+        <v>-0.5822551603085327</v>
       </c>
       <c r="AD17" t="n">
-        <v>-0.8473980453715946</v>
+        <v>-0.4905617285596264</v>
       </c>
       <c r="AE17" t="n">
-        <v>-0.740930295916567</v>
+        <v>-0.7063547852262831</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.4135526381623549</v>
+        <v>0.2086456554402432</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.5667161000266426</v>
+        <v>0.5818500084411341</v>
       </c>
       <c r="AH17" t="n">
-        <v>-0.5800656363494325</v>
+        <v>-0.5202375187025393</v>
       </c>
       <c r="AI17" t="n">
-        <v>-0.7302265878102266</v>
+        <v>-0.7293852387189161</v>
       </c>
       <c r="AJ17" t="n">
-        <v>-0.3033413765775166</v>
+        <v>-0.3864116616730048</v>
       </c>
       <c r="AK17" t="n">
-        <v>-0.5830450507061467</v>
+        <v>-0.287347885566346</v>
       </c>
       <c r="AL17" t="n">
-        <v>-0.3008681676059223</v>
+        <v>-0.1324784993073443</v>
       </c>
       <c r="AM17" t="n">
-        <v>-0.8579993324240816</v>
+        <v>-0.7284670843593581</v>
       </c>
       <c r="AN17" t="n">
-        <v>-0.8828846945553851</v>
+        <v>-0.8128170608836445</v>
       </c>
       <c r="AO17" t="n">
-        <v>-0.4695226935843154</v>
+        <v>-0.5279510007649161</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.3530714867998819</v>
+        <v>0.3909666736931074</v>
       </c>
       <c r="AQ17" t="n">
-        <v>-0.6107360250554803</v>
+        <v>-0.3945429049407159</v>
       </c>
     </row>
     <row r="18">
@@ -48316,124 +48536,128 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2243230812154211</v>
+        <v>0.2690466493106065</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07972981751832946</v>
+        <v>-0.01237254781492603</v>
       </c>
       <c r="D18" t="n">
-        <v>0.261830624450843</v>
+        <v>0.3218015368160738</v>
       </c>
       <c r="E18" t="n">
-        <v>0.15673221957935</v>
+        <v>0.2454793495523839</v>
       </c>
       <c r="F18" t="n">
-        <v>0.09101258152900023</v>
+        <v>0.1663427737256324</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1201879173663547</v>
+        <v>-0.2263896754238143</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7987942300950593</v>
+        <v>0.7588438773931032</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2391167132080303</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
+        <v>0.2995088645770587</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.1907238939104683</v>
+      </c>
       <c r="K18" t="n">
-        <v>0.488118280235615</v>
+        <v>0.4102862817450737</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.5806632429521891</v>
+        <v>-0.5167873235260086</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.9522006258816792</v>
+        <v>-0.8509172539248561</v>
       </c>
       <c r="N18" t="n">
-        <v>0.2059274851351305</v>
-      </c>
-      <c r="O18" t="inlineStr"/>
+        <v>0.2676511388294709</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.1142106130895849</v>
+      </c>
       <c r="P18" t="n">
-        <v>-0.2318174057034353</v>
+        <v>-0.044145017595578</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.282537626393992</v>
+        <v>-0.3236328003836725</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
       </c>
       <c r="S18" t="n">
-        <v>0.2919189191063109</v>
+        <v>0.2728837072560455</v>
       </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="n">
-        <v>0.5014118287403274</v>
+        <v>0.5244497524723168</v>
       </c>
       <c r="V18" t="n">
-        <v>-0.05963127712059348</v>
+        <v>-0.1456319879094204</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.1273244732709867</v>
+        <v>-0.1914468563459142</v>
       </c>
       <c r="X18" t="n">
-        <v>0.2999284228180983</v>
+        <v>0.3460336583213043</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.2746759384733863</v>
+        <v>0.2933504272693047</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.3550626220008545</v>
+        <v>0.3366860826047685</v>
       </c>
       <c r="AA18" t="n">
-        <v>-0.1228735820590022</v>
+        <v>0.006794784936051954</v>
       </c>
       <c r="AB18" t="n">
-        <v>-0.1906414252857498</v>
+        <v>-0.2544453739389197</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.1796850149437246</v>
+        <v>0.263170525058557</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.350815181533477</v>
+        <v>0.2876125218652855</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.3390485230107009</v>
+        <v>0.3749278838780105</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.07520306027048317</v>
+        <v>0.1401974989201986</v>
       </c>
       <c r="AG18" t="n">
-        <v>-0.6157660051722887</v>
+        <v>-0.5438255522906803</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.4802279323075351</v>
+        <v>0.400926123039495</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.5269715063040888</v>
+        <v>0.5305119687061116</v>
       </c>
       <c r="AJ18" t="n">
-        <v>-0.1166917179829468</v>
+        <v>-0.008877114704177349</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.1109917023219401</v>
+        <v>-0.02283624397379967</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.9688192740290219</v>
+        <v>0.7204655683791892</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.42002029019538</v>
+        <v>0.4126187213660706</v>
       </c>
       <c r="AN18" t="n">
-        <v>0.314972373115476</v>
+        <v>0.3592870948985846</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.533942504616808</v>
+        <v>0.52471543642055</v>
       </c>
       <c r="AP18" t="n">
-        <v>-0.5753536487076232</v>
+        <v>-0.5924300266640755</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.2006188994381812</v>
+        <v>0.09125465325143313</v>
       </c>
     </row>
     <row r="19">
@@ -48443,124 +48667,128 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9202570854122302</v>
+        <v>0.6033859951950726</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2927617846291987</v>
+        <v>-0.2665913618136236</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8149218943347964</v>
+        <v>0.6475992059759027</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8725041704758754</v>
+        <v>0.9227149044627125</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8989295172414068</v>
+        <v>0.5496531496175076</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.7681524173698854</v>
+        <v>-0.7777811166883983</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6894780680844533</v>
+        <v>0.3103747570557872</v>
       </c>
       <c r="I19" t="n">
-        <v>0.903023153969964</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
+        <v>0.8533661587148311</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.9424988381774128</v>
+      </c>
       <c r="K19" t="n">
-        <v>0.6346067822166163</v>
+        <v>0.9185436666709528</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.2462181240643245</v>
+        <v>-0.7283934427699248</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.03883036456866795</v>
+        <v>0.2205203792590733</v>
       </c>
       <c r="N19" t="n">
-        <v>0.9234147887387548</v>
-      </c>
-      <c r="O19" t="inlineStr"/>
+        <v>0.9506059692180453</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.611478528680634</v>
+      </c>
       <c r="P19" t="n">
-        <v>0.2972867829566544</v>
+        <v>0.6442045527274826</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.430902117637195</v>
+        <v>-0.3759402282052708</v>
       </c>
       <c r="R19" t="n">
-        <v>0.2919189191063109</v>
+        <v>0.2728837072560455</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
       </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
-        <v>0.4907653867923435</v>
+        <v>0.4173605335450203</v>
       </c>
       <c r="V19" t="n">
-        <v>-0.6854456975901095</v>
+        <v>-0.5730472732975476</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.493557834219886</v>
+        <v>-0.4581876471589243</v>
       </c>
       <c r="X19" t="n">
-        <v>0.8006536628339828</v>
+        <v>0.5476054523101604</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.9234891170356478</v>
+        <v>0.924664505565391</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.653039991140283</v>
+        <v>0.1696852953809657</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.2811005991478077</v>
+        <v>0.5262495218387916</v>
       </c>
       <c r="AB19" t="n">
-        <v>-0.6418480156235294</v>
+        <v>-0.568954262489113</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.8931326009373768</v>
+        <v>0.8332860177941835</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.7076418350436231</v>
+        <v>0.9666539766969972</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.5442199238121439</v>
+        <v>0.7353513553776287</v>
       </c>
       <c r="AF19" t="n">
-        <v>-0.6079349620042082</v>
+        <v>0.3317097890314452</v>
       </c>
       <c r="AG19" t="n">
-        <v>-0.8502648400880396</v>
+        <v>-0.6514369111459998</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.9349270895500267</v>
+        <v>0.9367903028863065</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.7938460931089463</v>
+        <v>0.7222643244585421</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0.66882967901946</v>
+        <v>0.5702286515631506</v>
       </c>
       <c r="AK19" t="n">
-        <v>-0.3152610464931037</v>
+        <v>-0.5527872448065108</v>
       </c>
       <c r="AL19" t="n">
-        <v>0.1548683882863905</v>
+        <v>-0.4268861055494482</v>
       </c>
       <c r="AM19" t="n">
-        <v>0.7571049846109561</v>
+        <v>0.8793976292490019</v>
       </c>
       <c r="AN19" t="n">
-        <v>0.7244665496573726</v>
+        <v>0.7416109395477883</v>
       </c>
       <c r="AO19" t="n">
-        <v>0.4168144538148484</v>
+        <v>0.586122211849499</v>
       </c>
       <c r="AP19" t="n">
-        <v>-0.2040921841906638</v>
+        <v>-0.2708119700813783</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.7699605333694098</v>
+        <v>-0.1564821742728787</v>
       </c>
     </row>
     <row r="20">
@@ -48619,124 +48847,128 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.508359354737148</v>
+        <v>0.5172575545846155</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1868483850922787</v>
+        <v>0.03419436044330394</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4877222778187977</v>
+        <v>0.5454482449246805</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5172121047371886</v>
+        <v>0.4626625605758292</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3743967582860824</v>
+        <v>0.4134308916109309</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.4283772852310507</v>
+        <v>-0.4908686035121885</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6169663056170887</v>
+        <v>0.5866034775568227</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5224218657424459</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
+        <v>0.5175410498089981</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.2988465517623471</v>
+      </c>
       <c r="K21" t="n">
-        <v>0.7637126821127919</v>
+        <v>0.6117975488159465</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1196346207281816</v>
+        <v>-0.1053702343691502</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.3658596100162025</v>
+        <v>-0.2527055584903281</v>
       </c>
       <c r="N21" t="n">
-        <v>0.5749991319536223</v>
-      </c>
-      <c r="O21" t="inlineStr"/>
+        <v>0.4886845416422245</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.2577100775770603</v>
+      </c>
       <c r="P21" t="n">
-        <v>-0.4375697695901322</v>
+        <v>-0.1101158207567933</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.5083180465751366</v>
+        <v>-0.5445120920498626</v>
       </c>
       <c r="R21" t="n">
-        <v>0.5014118287403274</v>
+        <v>0.5244497524723168</v>
       </c>
       <c r="S21" t="n">
-        <v>0.4907653867923435</v>
+        <v>0.4173605335450203</v>
       </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="n">
         <v>1</v>
       </c>
       <c r="V21" t="n">
-        <v>-0.351333495434069</v>
+        <v>-0.432820981155364</v>
       </c>
       <c r="W21" t="n">
-        <v>-0.279912767392155</v>
+        <v>-0.3571181441584202</v>
       </c>
       <c r="X21" t="n">
-        <v>0.5015105351473106</v>
+        <v>0.5483806373079688</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.5992548982392806</v>
+        <v>0.502260431713955</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.7377532849858415</v>
+        <v>0.6736816598298305</v>
       </c>
       <c r="AA21" t="n">
-        <v>-0.05112454005176981</v>
+        <v>0.1221597660272792</v>
       </c>
       <c r="AB21" t="n">
-        <v>-0.3836980786079895</v>
+        <v>-0.4590877223067864</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.4817347360086481</v>
+        <v>0.4959338037541361</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.4575416971709197</v>
+        <v>0.4170278906701704</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.4315323104851034</v>
+        <v>0.4720354046189075</v>
       </c>
       <c r="AF21" t="n">
-        <v>-0.367911804471438</v>
+        <v>-0.1863352825722825</v>
       </c>
       <c r="AG21" t="n">
-        <v>-0.6150802337341996</v>
+        <v>-0.581914679712595</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.6530156661143809</v>
+        <v>0.5405278934305121</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.4789015116662204</v>
+        <v>0.5544080134950242</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0.06413501570459093</v>
+        <v>0.2163512965741083</v>
       </c>
       <c r="AK21" t="n">
-        <v>0.02392969830909197</v>
+        <v>-0.1508378147855123</v>
       </c>
       <c r="AL21" t="n">
-        <v>0.4269681629108042</v>
+        <v>0.1942715738536336</v>
       </c>
       <c r="AM21" t="n">
-        <v>0.5129681234918254</v>
+        <v>0.5289764102018851</v>
       </c>
       <c r="AN21" t="n">
-        <v>0.4795233546870978</v>
+        <v>0.5304835850665559</v>
       </c>
       <c r="AO21" t="n">
-        <v>0.9789391094825136</v>
+        <v>0.8724544154987739</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.1405037507522444</v>
+        <v>0.06820142379459991</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.3731733646504372</v>
+        <v>0.1860941668407083</v>
       </c>
     </row>
     <row r="22">
@@ -48746,124 +48978,128 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.8246642260025686</v>
+        <v>-0.824059841842672</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.5896942192959396</v>
+        <v>-0.2654434094872126</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.8432726315880487</v>
+        <v>-0.8809428690319263</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.5672687781823448</v>
+        <v>-0.6246573643464578</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.6997119335023892</v>
+        <v>-0.7360940594460069</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4820572347179985</v>
+        <v>0.6385548153922289</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.4970592537516909</v>
+        <v>-0.541006226805245</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.8470139708100407</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
+        <v>-0.8241323475829272</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-0.3929465753240303</v>
+      </c>
       <c r="K22" t="n">
-        <v>-0.3317839933870437</v>
+        <v>-0.5240532586439539</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.01847481582432274</v>
+        <v>0.2878096144872873</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.1719647726034274</v>
+        <v>-0.2610028865656744</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.7362132545802826</v>
-      </c>
-      <c r="O22" t="inlineStr"/>
+        <v>-0.6851282310517842</v>
+      </c>
+      <c r="O22" t="n">
+        <v>-0.2076047513465349</v>
+      </c>
       <c r="P22" t="n">
-        <v>-0.4874098158348489</v>
+        <v>-0.6242933620573025</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.5177959614723149</v>
+        <v>0.57781297592408</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.05963127712059348</v>
+        <v>-0.1456319879094204</v>
       </c>
       <c r="S22" t="n">
-        <v>-0.6854456975901095</v>
+        <v>-0.5730472732975476</v>
       </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="n">
-        <v>-0.351333495434069</v>
+        <v>-0.432820981155364</v>
       </c>
       <c r="V22" t="n">
         <v>1</v>
       </c>
       <c r="W22" t="n">
-        <v>0.3870423115814649</v>
+        <v>0.4980130142593169</v>
       </c>
       <c r="X22" t="n">
-        <v>-0.8435355759478774</v>
+        <v>-0.8728919192353953</v>
       </c>
       <c r="Y22" t="n">
-        <v>-0.6106400837964103</v>
+        <v>-0.647587997031686</v>
       </c>
       <c r="Z22" t="n">
-        <v>-0.4257463120153291</v>
+        <v>-0.4180703041998107</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.01547566692986539</v>
+        <v>-0.248109412808101</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.8164774505876126</v>
+        <v>0.8342346288138727</v>
       </c>
       <c r="AC22" t="n">
-        <v>-0.8596455655196489</v>
+        <v>-0.8400867196522425</v>
       </c>
       <c r="AD22" t="n">
-        <v>-0.6974184157868798</v>
+        <v>-0.573807070644906</v>
       </c>
       <c r="AE22" t="n">
-        <v>-0.6568705730426085</v>
+        <v>-0.7264607049356677</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.9734253120917621</v>
+        <v>0.5230651046456434</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.5125224618460046</v>
+        <v>0.6416933129874322</v>
       </c>
       <c r="AH22" t="n">
-        <v>-0.6589710104960248</v>
+        <v>-0.6770434035896091</v>
       </c>
       <c r="AI22" t="n">
-        <v>-0.6785144131790151</v>
+        <v>-0.7513564399628846</v>
       </c>
       <c r="AJ22" t="n">
-        <v>-0.6715623205796998</v>
+        <v>-0.728679869704261</v>
       </c>
       <c r="AK22" t="n">
-        <v>0.0134793321338876</v>
+        <v>0.2803478161244529</v>
       </c>
       <c r="AL22" t="n">
-        <v>0.06216686020711568</v>
+        <v>0.2217378333820525</v>
       </c>
       <c r="AM22" t="n">
-        <v>-0.6067407221812943</v>
+        <v>-0.6794967784393672</v>
       </c>
       <c r="AN22" t="n">
-        <v>-0.6705989143889048</v>
+        <v>-0.7552604302174398</v>
       </c>
       <c r="AO22" t="n">
-        <v>-0.3234413550635338</v>
+        <v>-0.4974866523108835</v>
       </c>
       <c r="AP22" t="n">
-        <v>-0.0788217446598987</v>
+        <v>0.03114027217385717</v>
       </c>
       <c r="AQ22" t="n">
-        <v>-0.9680092254059087</v>
+        <v>-0.5598580541501221</v>
       </c>
     </row>
     <row r="23">
@@ -48873,124 +49109,128 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.5700498906270035</v>
+        <v>-0.6206661880658116</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.5738632073652831</v>
+        <v>-0.3154496836619554</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.6672565954839764</v>
+        <v>-0.7262188128464582</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.2661492492096561</v>
+        <v>-0.4465525561689108</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.3442950251211659</v>
+        <v>-0.4609519044239292</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1580881727487868</v>
+        <v>0.3844503901875064</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.5910654589720534</v>
+        <v>-0.6113656242603553</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.471757322157342</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
+        <v>-0.5659469906247403</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-0.3225307154000023</v>
+      </c>
       <c r="K23" t="n">
-        <v>-0.5376734339197231</v>
+        <v>-0.5544767479272784</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3727716926054755</v>
+        <v>0.4757209928195895</v>
       </c>
       <c r="M23" t="n">
-        <v>0.08342138318553782</v>
+        <v>-0.01858121479534602</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.4256836445691939</v>
-      </c>
-      <c r="O23" t="inlineStr"/>
+        <v>-0.5024340013247123</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-0.1708499590065194</v>
+      </c>
       <c r="P23" t="n">
-        <v>-0.3015981544991319</v>
+        <v>-0.453781801897011</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.7865184375696656</v>
+        <v>0.8082549157038846</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.1273244732709867</v>
+        <v>-0.1914468563459142</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.493557834219886</v>
+        <v>-0.4581876471589243</v>
       </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="n">
-        <v>-0.279912767392155</v>
+        <v>-0.3571181441584202</v>
       </c>
       <c r="V23" t="n">
-        <v>0.3870423115814649</v>
+        <v>0.4980130142593169</v>
       </c>
       <c r="W23" t="n">
         <v>1</v>
       </c>
       <c r="X23" t="n">
-        <v>-0.6799582106238966</v>
+        <v>-0.7304299262827327</v>
       </c>
       <c r="Y23" t="n">
-        <v>-0.4128400725022037</v>
+        <v>-0.5030603280640757</v>
       </c>
       <c r="Z23" t="n">
-        <v>-0.2822125998006521</v>
+        <v>-0.2965715881403025</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.4834262595767686</v>
+        <v>0.1652253432866311</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.3291468150715577</v>
+        <v>0.4249361691308582</v>
       </c>
       <c r="AC23" t="n">
-        <v>-0.4766919548305464</v>
+        <v>-0.5717101626483576</v>
       </c>
       <c r="AD23" t="n">
-        <v>-0.7607801174350893</v>
+        <v>-0.5285265375895087</v>
       </c>
       <c r="AE23" t="n">
-        <v>-0.710967279040408</v>
+        <v>-0.7252345026876096</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.2897379476447202</v>
+        <v>0.08084739785396945</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.531987603266566</v>
+        <v>0.6051773344371315</v>
       </c>
       <c r="AH23" t="n">
-        <v>-0.4848952758084809</v>
+        <v>-0.5401779541716732</v>
       </c>
       <c r="AI23" t="n">
-        <v>-0.6445578114593554</v>
+        <v>-0.6973810714860776</v>
       </c>
       <c r="AJ23" t="n">
-        <v>-0.3122623109257113</v>
+        <v>-0.4216303416938946</v>
       </c>
       <c r="AK23" t="n">
-        <v>-0.4551899411222871</v>
+        <v>-0.1279406768348958</v>
       </c>
       <c r="AL23" t="n">
-        <v>-0.2155187908501587</v>
+        <v>-0.02685448214056136</v>
       </c>
       <c r="AM23" t="n">
-        <v>-0.8507357942870819</v>
+        <v>-0.7697224048294193</v>
       </c>
       <c r="AN23" t="n">
-        <v>-0.7767015350140761</v>
+        <v>-0.7819777297952475</v>
       </c>
       <c r="AO23" t="n">
-        <v>-0.2617742336609839</v>
+        <v>-0.413449211796154</v>
       </c>
       <c r="AP23" t="n">
-        <v>0.3482974878528179</v>
+        <v>0.3935514544057629</v>
       </c>
       <c r="AQ23" t="n">
-        <v>-0.4652735788462645</v>
+        <v>-0.220414379944786</v>
       </c>
     </row>
     <row r="24">
@@ -49000,124 +49240,128 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9194055327772663</v>
+        <v>0.8873646760581346</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6883728071498745</v>
+        <v>0.3731272368848868</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9965569998384143</v>
+        <v>0.9894160638239029</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6731372468178775</v>
+        <v>0.617971966564919</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7155942841733625</v>
+        <v>0.7532873024516835</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.6043679975071059</v>
+        <v>-0.6850514242863559</v>
       </c>
       <c r="H24" t="n">
-        <v>0.7796466046448843</v>
+        <v>0.7857667130521941</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9325073505637248</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
+        <v>0.8450703330169174</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.3355702993210347</v>
+      </c>
       <c r="K24" t="n">
-        <v>0.6618623840199075</v>
+        <v>0.6193696059883685</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.3331784103032887</v>
+        <v>-0.4602036250169261</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.07795648479501784</v>
+        <v>0.03238859023807985</v>
       </c>
       <c r="N24" t="n">
-        <v>0.822225951837627</v>
-      </c>
-      <c r="O24" t="inlineStr"/>
+        <v>0.6727749016962743</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.185602857557457</v>
+      </c>
       <c r="P24" t="n">
-        <v>0.3541425903210249</v>
+        <v>0.5118229433200894</v>
       </c>
       <c r="Q24" t="n">
-        <v>-0.7971549234985321</v>
+        <v>-0.8128545039108664</v>
       </c>
       <c r="R24" t="n">
-        <v>0.2999284228180983</v>
+        <v>0.3460336583213043</v>
       </c>
       <c r="S24" t="n">
-        <v>0.8006536628339828</v>
+        <v>0.5476054523101604</v>
       </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="n">
-        <v>0.5015105351473106</v>
+        <v>0.5483806373079688</v>
       </c>
       <c r="V24" t="n">
-        <v>-0.8435355759478774</v>
+        <v>-0.8728919192353953</v>
       </c>
       <c r="W24" t="n">
-        <v>-0.6799582106238966</v>
+        <v>-0.7304299262827327</v>
       </c>
       <c r="X24" t="n">
         <v>1</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.7819437484583996</v>
+        <v>0.6680599550999926</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.6623351269749317</v>
+        <v>0.6410142602512097</v>
       </c>
       <c r="AA24" t="n">
-        <v>-0.1341832087215984</v>
+        <v>0.1343086264793789</v>
       </c>
       <c r="AB24" t="n">
-        <v>-0.8310787155069111</v>
+        <v>-0.8333930064447314</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.930822461647104</v>
+        <v>0.8569233689877513</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.8836336128790734</v>
+        <v>0.5725444756804774</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.7176034645091339</v>
+        <v>0.734486180294695</v>
       </c>
       <c r="AF24" t="n">
-        <v>-0.7412369717490314</v>
+        <v>-0.4005805701561068</v>
       </c>
       <c r="AG24" t="n">
-        <v>-0.7445109457945487</v>
+        <v>-0.7768886441816333</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.8573321504853679</v>
+        <v>0.7212843620951649</v>
       </c>
       <c r="AI24" t="n">
-        <v>0.8968529815393347</v>
+        <v>0.8910277409576459</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0.6849084922256276</v>
+        <v>0.7270606334612919</v>
       </c>
       <c r="AK24" t="n">
-        <v>0.09338470587859035</v>
+        <v>-0.1763868988250472</v>
       </c>
       <c r="AL24" t="n">
-        <v>0.2174050286563111</v>
+        <v>0.03004850154846176</v>
       </c>
       <c r="AM24" t="n">
-        <v>0.8824939594378457</v>
+        <v>0.7919225920958669</v>
       </c>
       <c r="AN24" t="n">
-        <v>0.9317971738894916</v>
+        <v>0.900958843258211</v>
       </c>
       <c r="AO24" t="n">
-        <v>0.4432952834611664</v>
+        <v>0.5691293670194169</v>
       </c>
       <c r="AP24" t="n">
-        <v>-0.2812478827220384</v>
+        <v>-0.3324321369206413</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.9221142126131732</v>
+        <v>0.5586917196427087</v>
       </c>
     </row>
     <row r="25">
@@ -49127,124 +49371,128 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9219115323390257</v>
+        <v>0.809486448654986</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1679346349726306</v>
+        <v>-0.3222902545905411</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7973285359476976</v>
+        <v>0.7529467114023181</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9699661782000887</v>
+        <v>0.9951081178134725</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8867208419313606</v>
+        <v>0.7615282015166933</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.8911648512036102</v>
+        <v>-0.9151314723843083</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6325361351334201</v>
+        <v>0.4663898327787177</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9057286933694982</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
+        <v>0.9381230604019319</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.8214470253804164</v>
+      </c>
       <c r="K25" t="n">
-        <v>0.6661968270413027</v>
+        <v>0.9023555467563102</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.2164527789630043</v>
+        <v>-0.6780376496456554</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.02114689198284263</v>
+        <v>0.2185000328557394</v>
       </c>
       <c r="N25" t="n">
-        <v>0.9551442770451183</v>
-      </c>
-      <c r="O25" t="inlineStr"/>
+        <v>0.9858555355608341</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.459110997411074</v>
+      </c>
       <c r="P25" t="n">
-        <v>0.08575403146384113</v>
+        <v>0.6078306867530843</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.4898933308639018</v>
+        <v>-0.4617565535333834</v>
       </c>
       <c r="R25" t="n">
-        <v>0.2746759384733863</v>
+        <v>0.2933504272693047</v>
       </c>
       <c r="S25" t="n">
-        <v>0.9234891170356478</v>
+        <v>0.924664505565391</v>
       </c>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="n">
-        <v>0.5992548982392806</v>
+        <v>0.502260431713955</v>
       </c>
       <c r="V25" t="n">
-        <v>-0.6106400837964103</v>
+        <v>-0.647587997031686</v>
       </c>
       <c r="W25" t="n">
-        <v>-0.4128400725022037</v>
+        <v>-0.5030603280640757</v>
       </c>
       <c r="X25" t="n">
-        <v>0.7819437484583996</v>
+        <v>0.6680599550999926</v>
       </c>
       <c r="Y25" t="n">
         <v>1</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.8583522790635703</v>
+        <v>0.4141702744639216</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.3338833887129818</v>
+        <v>0.6059048525184159</v>
       </c>
       <c r="AB25" t="n">
-        <v>-0.5665254325612864</v>
+        <v>-0.5759776744803743</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.8905353117191582</v>
+        <v>0.9222361505086996</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.6179143806533246</v>
+        <v>0.8847848528198413</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.4303560517324773</v>
+        <v>0.7423788945347152</v>
       </c>
       <c r="AF25" t="n">
-        <v>-0.5422513952672035</v>
+        <v>0.1876012084919818</v>
       </c>
       <c r="AG25" t="n">
-        <v>-0.8437558938270838</v>
+        <v>-0.8316011686806553</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.9528651459990005</v>
+        <v>0.9769618710708163</v>
       </c>
       <c r="AI25" t="n">
-        <v>0.737928055521709</v>
+        <v>0.7757395040256005</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0.625769412502139</v>
+        <v>0.6222633448625317</v>
       </c>
       <c r="AK25" t="n">
-        <v>-0.3732100136460898</v>
+        <v>-0.6378832793521994</v>
       </c>
       <c r="AL25" t="n">
-        <v>0.1254333568588204</v>
+        <v>-0.3338416301350082</v>
       </c>
       <c r="AM25" t="n">
-        <v>0.6763326090948211</v>
+        <v>0.8726894931108979</v>
       </c>
       <c r="AN25" t="n">
-        <v>0.7206997169125868</v>
+        <v>0.8423290523231945</v>
       </c>
       <c r="AO25" t="n">
-        <v>0.4769675000115179</v>
+        <v>0.6782603682764379</v>
       </c>
       <c r="AP25" t="n">
-        <v>-0.1789327357104222</v>
+        <v>-0.2701367172415412</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.6951960804143834</v>
+        <v>-0.1416963873099458</v>
       </c>
     </row>
     <row r="26">
@@ -49254,124 +49502,128 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.7174480357447496</v>
+        <v>0.6620259293913815</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1366836013251978</v>
+        <v>0.04936877055337181</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6705276445886603</v>
+        <v>0.6096683757870085</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7966597789511537</v>
+        <v>0.3727700668395206</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5971128132938049</v>
+        <v>0.6009565049119793</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.718562912296748</v>
+        <v>-0.5496249627221801</v>
       </c>
       <c r="H26" t="n">
-        <v>0.589851384731512</v>
+        <v>0.6256722884276696</v>
       </c>
       <c r="I26" t="n">
-        <v>0.7462682756429636</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
+        <v>0.5127051614654639</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-0.005199750799178581</v>
+      </c>
       <c r="K26" t="n">
-        <v>0.7395882174180265</v>
+        <v>0.3545378534779826</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.1930995507254723</v>
+        <v>-0.134453162225848</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.1433734443667295</v>
+        <v>-0.1157856963152693</v>
       </c>
       <c r="N26" t="n">
-        <v>0.7832463008617229</v>
-      </c>
-      <c r="O26" t="inlineStr"/>
+        <v>0.3599102875527366</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.02478276940033501</v>
+      </c>
       <c r="P26" t="n">
-        <v>-0.1515028942089912</v>
+        <v>-0.03295754712746539</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.622592876195416</v>
+        <v>-0.5945950278874567</v>
       </c>
       <c r="R26" t="n">
-        <v>0.3550626220008545</v>
+        <v>0.3366860826047685</v>
       </c>
       <c r="S26" t="n">
-        <v>0.653039991140283</v>
+        <v>0.1696852953809657</v>
       </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="n">
-        <v>0.7377532849858415</v>
+        <v>0.6736816598298305</v>
       </c>
       <c r="V26" t="n">
-        <v>-0.4257463120153291</v>
+        <v>-0.4180703041998107</v>
       </c>
       <c r="W26" t="n">
-        <v>-0.2822125998006521</v>
+        <v>-0.2965715881403025</v>
       </c>
       <c r="X26" t="n">
-        <v>0.6623351269749317</v>
+        <v>0.6410142602512097</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.8583522790635703</v>
+        <v>0.4141702744639216</v>
       </c>
       <c r="Z26" t="n">
         <v>1</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.09269189107089394</v>
+        <v>0.147097138008277</v>
       </c>
       <c r="AB26" t="n">
-        <v>-0.4892462741938921</v>
+        <v>-0.419343284486051</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.7093850618325596</v>
+        <v>0.508609119287553</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.56178919742273</v>
+        <v>0.1673651478465137</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.3599108221851711</v>
+        <v>0.2722897448282364</v>
       </c>
       <c r="AF26" t="n">
-        <v>-0.3684024159859927</v>
+        <v>-0.3228698401563046</v>
       </c>
       <c r="AG26" t="n">
-        <v>-0.7269153995889482</v>
+        <v>-0.6320618884443377</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.820500211684745</v>
+        <v>0.4229911118480547</v>
       </c>
       <c r="AI26" t="n">
-        <v>0.6283421033879226</v>
+        <v>0.5385560600896918</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0.3957936646746472</v>
+        <v>0.3719872151171949</v>
       </c>
       <c r="AK26" t="n">
-        <v>-0.1313175037692718</v>
+        <v>-0.1786218356942189</v>
       </c>
       <c r="AL26" t="n">
-        <v>0.2223114874640745</v>
+        <v>0.2304465062498564</v>
       </c>
       <c r="AM26" t="n">
-        <v>0.588465710245157</v>
+        <v>0.3628538040104988</v>
       </c>
       <c r="AN26" t="n">
-        <v>0.664308263827599</v>
+        <v>0.5385711730751963</v>
       </c>
       <c r="AO26" t="n">
-        <v>0.6207812080216921</v>
+        <v>0.5532027060880168</v>
       </c>
       <c r="AP26" t="n">
-        <v>-0.1668160094262909</v>
+        <v>-0.1617744925552527</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.5217355562572813</v>
+        <v>0.3791204169741879</v>
       </c>
     </row>
     <row r="27">
@@ -49381,124 +49633,128 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1655076996599956</v>
+        <v>0.4435294074778406</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.4927142753013626</v>
+        <v>-0.6048807364799629</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.09885588390891038</v>
+        <v>0.2183599636694117</v>
       </c>
       <c r="E27" t="n">
-        <v>0.507904675549946</v>
+        <v>0.6592993307340189</v>
       </c>
       <c r="F27" t="n">
-        <v>0.4699669372945154</v>
+        <v>0.6088756776075575</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.6491783476277092</v>
+        <v>-0.7681332139538232</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.2309809345471613</v>
+        <v>-0.02035870564500371</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1455494213020865</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
+        <v>0.4955901694671604</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.4560165241922618</v>
+      </c>
       <c r="K27" t="n">
-        <v>-0.2141677619239771</v>
+        <v>0.3503637650315946</v>
       </c>
       <c r="L27" t="n">
-        <v>0.251354106899936</v>
+        <v>-0.207381323236059</v>
       </c>
       <c r="M27" t="n">
-        <v>0.2185422557803005</v>
+        <v>0.3089555600043977</v>
       </c>
       <c r="N27" t="n">
-        <v>0.2968660078210402</v>
-      </c>
-      <c r="O27" t="inlineStr"/>
+        <v>0.5826997274754638</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.2427333308976012</v>
+      </c>
       <c r="P27" t="n">
-        <v>-0.1383605867741467</v>
+        <v>0.2512785833437951</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.6188029446348136</v>
+        <v>0.3315395241322358</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.1228735820590022</v>
+        <v>0.006794784936051954</v>
       </c>
       <c r="S27" t="n">
-        <v>0.2811005991478077</v>
+        <v>0.5262495218387916</v>
       </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="n">
-        <v>-0.05112454005176981</v>
+        <v>0.1221597660272792</v>
       </c>
       <c r="V27" t="n">
-        <v>0.01547566692986539</v>
+        <v>-0.248109412808101</v>
       </c>
       <c r="W27" t="n">
-        <v>0.4834262595767686</v>
+        <v>0.1652253432866311</v>
       </c>
       <c r="X27" t="n">
-        <v>-0.1341832087215984</v>
+        <v>0.1343086264793789</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.3338833887129818</v>
+        <v>0.6059048525184159</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.09269189107089394</v>
+        <v>0.147097138008277</v>
       </c>
       <c r="AA27" t="n">
         <v>1</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.08545423514631091</v>
+        <v>-0.1460037197006442</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.1795162583265054</v>
+        <v>0.5051493353178773</v>
       </c>
       <c r="AD27" t="n">
-        <v>-0.3896992116554735</v>
+        <v>0.3599250835993825</v>
       </c>
       <c r="AE27" t="n">
-        <v>-0.4868029605159165</v>
+        <v>0.06572416650620021</v>
       </c>
       <c r="AF27" t="n">
-        <v>-0.04257218278589192</v>
+        <v>0.1564123774011554</v>
       </c>
       <c r="AG27" t="n">
-        <v>-0.04442860052376812</v>
+        <v>-0.3955891590379937</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.1800354181723845</v>
+        <v>0.5321419370164923</v>
       </c>
       <c r="AI27" t="n">
-        <v>-0.1596919850581284</v>
+        <v>0.210433355269576</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0.3137528467460891</v>
+        <v>0.4687740349330294</v>
       </c>
       <c r="AK27" t="n">
-        <v>-0.9989990544119016</v>
+        <v>-0.9989200860780658</v>
       </c>
       <c r="AL27" t="n">
-        <v>-0.2607236679980176</v>
+        <v>-0.3910626910010669</v>
       </c>
       <c r="AM27" t="n">
-        <v>-0.3655149544834619</v>
+        <v>0.2151628772945886</v>
       </c>
       <c r="AN27" t="n">
-        <v>-0.3119273418686718</v>
+        <v>0.1923071715494108</v>
       </c>
       <c r="AO27" t="n">
-        <v>-0.1216070033877768</v>
+        <v>0.2320075263286719</v>
       </c>
       <c r="AP27" t="n">
-        <v>0.2496800990415833</v>
+        <v>0.0899984130366875</v>
       </c>
       <c r="AQ27" t="n">
-        <v>-0.04775944829459962</v>
+        <v>-0.2707260549297695</v>
       </c>
     </row>
     <row r="28">
@@ -49508,124 +49764,128 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.6988917225681783</v>
+        <v>-0.654210886938371</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.7850934563431058</v>
+        <v>-0.4836731630149822</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.846531542672592</v>
+        <v>-0.8542243701925325</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.4990722679121487</v>
+        <v>-0.5448542539379676</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.5867567958166717</v>
+        <v>-0.5664822457666254</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4407612486940591</v>
+        <v>0.5564813712401885</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.5990283676158957</v>
+        <v>-0.5639959550740953</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.8352785652337013</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
+        <v>-0.7727424100171821</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-0.4051290906014327</v>
+      </c>
       <c r="K28" t="n">
-        <v>-0.5157264465063616</v>
+        <v>-0.5935789184784188</v>
       </c>
       <c r="L28" t="n">
-        <v>0.1734636720082764</v>
+        <v>0.3897112926438855</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.05373855421450086</v>
+        <v>-0.1520308111672986</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.644940392530217</v>
-      </c>
-      <c r="O28" t="inlineStr"/>
+        <v>-0.6143841284321717</v>
+      </c>
+      <c r="O28" t="n">
+        <v>-0.2573571700387436</v>
+      </c>
       <c r="P28" t="n">
-        <v>-0.4302382682240418</v>
+        <v>-0.5569431128959601</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.5653668285590461</v>
+        <v>0.6062977230303225</v>
       </c>
       <c r="R28" t="n">
-        <v>-0.1906414252857498</v>
+        <v>-0.2544453739389197</v>
       </c>
       <c r="S28" t="n">
-        <v>-0.6418480156235294</v>
+        <v>-0.568954262489113</v>
       </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="n">
-        <v>-0.3836980786079895</v>
+        <v>-0.4590877223067864</v>
       </c>
       <c r="V28" t="n">
-        <v>0.8164774505876126</v>
+        <v>0.8342346288138727</v>
       </c>
       <c r="W28" t="n">
-        <v>0.3291468150715577</v>
+        <v>0.4249361691308582</v>
       </c>
       <c r="X28" t="n">
-        <v>-0.8310787155069111</v>
+        <v>-0.8333930064447314</v>
       </c>
       <c r="Y28" t="n">
-        <v>-0.5665254325612864</v>
+        <v>-0.5759776744803743</v>
       </c>
       <c r="Z28" t="n">
-        <v>-0.4892462741938921</v>
+        <v>-0.419343284486051</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.08545423514631091</v>
+        <v>-0.1460037197006442</v>
       </c>
       <c r="AB28" t="n">
         <v>1</v>
       </c>
       <c r="AC28" t="n">
-        <v>-0.8300040569098724</v>
+        <v>-0.7780045698884568</v>
       </c>
       <c r="AD28" t="n">
-        <v>-0.6985223041073206</v>
+        <v>-0.5784479412333053</v>
       </c>
       <c r="AE28" t="n">
-        <v>-0.4502593037965964</v>
+        <v>-0.5682880772441626</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.7515940776874029</v>
+        <v>0.3585110716999436</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.487439205129787</v>
+        <v>0.5360757042495602</v>
       </c>
       <c r="AH28" t="n">
-        <v>-0.6647891031510934</v>
+        <v>-0.6437691096931386</v>
       </c>
       <c r="AI28" t="n">
-        <v>-0.7471145354880847</v>
+        <v>-0.7810179228803288</v>
       </c>
       <c r="AJ28" t="n">
-        <v>-0.6870549464500426</v>
+        <v>-0.7354444963991736</v>
       </c>
       <c r="AK28" t="n">
-        <v>-0.05618616332573062</v>
+        <v>0.1780880651384625</v>
       </c>
       <c r="AL28" t="n">
-        <v>-0.0565371632635992</v>
+        <v>0.1591454636646419</v>
       </c>
       <c r="AM28" t="n">
-        <v>-0.6295460297488719</v>
+        <v>-0.6792392103462571</v>
       </c>
       <c r="AN28" t="n">
-        <v>-0.752732759367176</v>
+        <v>-0.7600021827897964</v>
       </c>
       <c r="AO28" t="n">
-        <v>-0.3598093687926041</v>
+        <v>-0.4722745548025645</v>
       </c>
       <c r="AP28" t="n">
-        <v>0.1236372267232437</v>
+        <v>0.1997124969738817</v>
       </c>
       <c r="AQ28" t="n">
-        <v>-0.8839924449973019</v>
+        <v>-0.5549713511781714</v>
       </c>
     </row>
     <row r="29">
@@ -49635,124 +49895,128 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.9707406114267629</v>
+        <v>0.9013297925725027</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4958327224324159</v>
+        <v>-0.03188082967781902</v>
       </c>
       <c r="D29" t="n">
-        <v>0.947840150397538</v>
+        <v>0.9137990808482307</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8540755177143077</v>
+        <v>0.9072432453000039</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8920058291954527</v>
+        <v>0.8450672951790116</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.7875755564684287</v>
+        <v>-0.8968464510605697</v>
       </c>
       <c r="H29" t="n">
-        <v>0.6516323333612617</v>
+        <v>0.59291692444232</v>
       </c>
       <c r="I29" t="n">
-        <v>0.9940582758776579</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
+        <v>0.9968801418177575</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.6609263769857358</v>
+      </c>
       <c r="K29" t="n">
-        <v>0.5569889070902061</v>
+        <v>0.8067280606270048</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.1728894097849574</v>
+        <v>-0.606851546359881</v>
       </c>
       <c r="M29" t="n">
-        <v>0.09693900804071406</v>
+        <v>0.2436394669537486</v>
       </c>
       <c r="N29" t="n">
-        <v>0.9446228045020015</v>
-      </c>
-      <c r="O29" t="inlineStr"/>
+        <v>0.9379515610748218</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.3158345828942705</v>
+      </c>
       <c r="P29" t="n">
-        <v>0.3688142496645668</v>
+        <v>0.6559493113573223</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.581928060209448</v>
+        <v>-0.5822551603085327</v>
       </c>
       <c r="R29" t="n">
-        <v>0.1796850149437246</v>
+        <v>0.263170525058557</v>
       </c>
       <c r="S29" t="n">
-        <v>0.8931326009373768</v>
+        <v>0.8332860177941835</v>
       </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="n">
-        <v>0.4817347360086481</v>
+        <v>0.4959338037541361</v>
       </c>
       <c r="V29" t="n">
-        <v>-0.8596455655196489</v>
+        <v>-0.8400867196522425</v>
       </c>
       <c r="W29" t="n">
-        <v>-0.4766919548305464</v>
+        <v>-0.5717101626483576</v>
       </c>
       <c r="X29" t="n">
-        <v>0.930822461647104</v>
+        <v>0.8569233689877513</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.8905353117191582</v>
+        <v>0.9222361505086996</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.7093850618325596</v>
+        <v>0.508609119287553</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.1795162583265054</v>
+        <v>0.5051493353178773</v>
       </c>
       <c r="AB29" t="n">
-        <v>-0.8300040569098724</v>
+        <v>-0.7780045698884568</v>
       </c>
       <c r="AC29" t="n">
         <v>1</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.7335194293532059</v>
+        <v>0.7938907020665118</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.5203003334900443</v>
+        <v>0.7635527064756007</v>
       </c>
       <c r="AF29" t="n">
-        <v>-0.7935638769444324</v>
+        <v>-0.07726757480832572</v>
       </c>
       <c r="AG29" t="n">
-        <v>-0.7552680820632501</v>
+        <v>-0.8441124197783987</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.9067900268240786</v>
+        <v>0.9443075364179006</v>
       </c>
       <c r="AI29" t="n">
-        <v>0.8100634557511246</v>
+        <v>0.8474879558381677</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0.7720817212541058</v>
+        <v>0.7441094832712192</v>
       </c>
       <c r="AK29" t="n">
-        <v>-0.2187987734301771</v>
+        <v>-0.5415256724358342</v>
       </c>
       <c r="AL29" t="n">
-        <v>0.02915786376905169</v>
+        <v>-0.274235667685386</v>
       </c>
       <c r="AM29" t="n">
-        <v>0.731328923831696</v>
+        <v>0.8699358728514236</v>
       </c>
       <c r="AN29" t="n">
-        <v>0.8101808068244152</v>
+        <v>0.8970289776492294</v>
       </c>
       <c r="AO29" t="n">
-        <v>0.3920974697974779</v>
+        <v>0.6583453916414186</v>
       </c>
       <c r="AP29" t="n">
-        <v>-0.1204572447075801</v>
+        <v>-0.2457781811093449</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.9173658650079184</v>
+        <v>0.2037643554938546</v>
       </c>
     </row>
     <row r="30">
@@ -49762,124 +50026,128 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.7575291026014371</v>
+        <v>0.583819731541244</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7034356182821651</v>
+        <v>-0.1591234475039942</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8727369158847927</v>
+        <v>0.6619097427931914</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4421479059274279</v>
+        <v>0.8713642417402149</v>
       </c>
       <c r="F30" t="n">
-        <v>0.5019685744901686</v>
+        <v>0.480318376354785</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.3340422434562338</v>
+        <v>-0.6903882788879239</v>
       </c>
       <c r="H30" t="n">
-        <v>0.7796194130323767</v>
+        <v>0.3370773430174521</v>
       </c>
       <c r="I30" t="n">
-        <v>0.7459456286865003</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
+        <v>0.8168621540412551</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.9533273885665656</v>
+      </c>
       <c r="K30" t="n">
-        <v>0.7109512995796911</v>
+        <v>0.9201840935344248</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.3995654736192913</v>
+        <v>-0.7513583412578685</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.1955600752184104</v>
+        <v>0.1748971550476407</v>
       </c>
       <c r="N30" t="n">
-        <v>0.6370594988004821</v>
-      </c>
-      <c r="O30" t="inlineStr"/>
+        <v>0.9054324845246393</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.6919735266348837</v>
+      </c>
       <c r="P30" t="n">
-        <v>0.4226947700155815</v>
+        <v>0.6833067783686384</v>
       </c>
       <c r="Q30" t="n">
-        <v>-0.8473980453715946</v>
+        <v>-0.4905617285596264</v>
       </c>
       <c r="R30" t="n">
-        <v>0.350815181533477</v>
+        <v>0.2876125218652855</v>
       </c>
       <c r="S30" t="n">
-        <v>0.7076418350436231</v>
+        <v>0.9666539766969972</v>
       </c>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="n">
-        <v>0.4575416971709197</v>
+        <v>0.4170278906701704</v>
       </c>
       <c r="V30" t="n">
-        <v>-0.6974184157868798</v>
+        <v>-0.573807070644906</v>
       </c>
       <c r="W30" t="n">
-        <v>-0.7607801174350893</v>
+        <v>-0.5285265375895087</v>
       </c>
       <c r="X30" t="n">
-        <v>0.8836336128790734</v>
+        <v>0.5725444756804774</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.6179143806533246</v>
+        <v>0.8847848528198413</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.56178919742273</v>
+        <v>0.1673651478465137</v>
       </c>
       <c r="AA30" t="n">
-        <v>-0.3896992116554735</v>
+        <v>0.3599250835993825</v>
       </c>
       <c r="AB30" t="n">
-        <v>-0.6985223041073206</v>
+        <v>-0.5784479412333053</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.7335194293532059</v>
+        <v>0.7938907020665118</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.877713921926477</v>
+        <v>0.7831434848443628</v>
       </c>
       <c r="AF30" t="n">
-        <v>-0.5844155844155846</v>
+        <v>0.3308813180220324</v>
       </c>
       <c r="AG30" t="n">
-        <v>-0.6722051862524199</v>
+        <v>-0.6166579706522659</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.7211642112827883</v>
+        <v>0.8951652599925676</v>
       </c>
       <c r="AI30" t="n">
-        <v>0.8866206949335731</v>
+        <v>0.7561053147679978</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0.5756763667968369</v>
+        <v>0.5538915800144848</v>
       </c>
       <c r="AK30" t="n">
-        <v>0.3547874375934493</v>
+        <v>-0.3895715380597907</v>
       </c>
       <c r="AL30" t="n">
-        <v>0.3283756703033529</v>
+        <v>-0.3771693848058411</v>
       </c>
       <c r="AM30" t="n">
-        <v>0.9576810682724014</v>
+        <v>0.9046491757990115</v>
       </c>
       <c r="AN30" t="n">
-        <v>0.8944676838894946</v>
+        <v>0.7749009242637702</v>
       </c>
       <c r="AO30" t="n">
-        <v>0.4614697802008931</v>
+        <v>0.5979458127617077</v>
       </c>
       <c r="AP30" t="n">
-        <v>-0.3562653562653563</v>
+        <v>-0.3118043286228914</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.7948064443461483</v>
+        <v>-0.1527948540393737</v>
       </c>
     </row>
     <row r="31">
@@ -49889,124 +50157,128 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.6025805774536144</v>
+        <v>0.6757727631651174</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5427373798796427</v>
+        <v>0.07461278901303887</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6767845905060431</v>
+        <v>0.7589441052371204</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2409799510967097</v>
+        <v>0.6909695016974176</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2986281077938158</v>
+        <v>0.4916847318350925</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.1097303172713256</v>
+        <v>-0.5446586996618936</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6608452706596084</v>
+        <v>0.5933215913189405</v>
       </c>
       <c r="I31" t="n">
-        <v>0.5404544864704051</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
+        <v>0.7769534384197075</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.6067434829290417</v>
+      </c>
       <c r="K31" t="n">
-        <v>0.6004568622326326</v>
+        <v>0.7954052583967157</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.2536637881697004</v>
+        <v>-0.6082082456686587</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.2550862782657836</v>
+        <v>-0.009647419929559043</v>
       </c>
       <c r="N31" t="n">
-        <v>0.4606948398980177</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
+        <v>0.7612251746684277</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.2494755759997847</v>
+      </c>
       <c r="P31" t="n">
-        <v>0.2645189126660997</v>
+        <v>0.5594049772047275</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.740930295916567</v>
+        <v>-0.7063547852262831</v>
       </c>
       <c r="R31" t="n">
-        <v>0.3390485230107009</v>
+        <v>0.3749278838780105</v>
       </c>
       <c r="S31" t="n">
-        <v>0.5442199238121439</v>
+        <v>0.7353513553776287</v>
       </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="n">
-        <v>0.4315323104851034</v>
+        <v>0.4720354046189075</v>
       </c>
       <c r="V31" t="n">
-        <v>-0.6568705730426085</v>
+        <v>-0.7264607049356677</v>
       </c>
       <c r="W31" t="n">
-        <v>-0.710967279040408</v>
+        <v>-0.7252345026876096</v>
       </c>
       <c r="X31" t="n">
-        <v>0.7176034645091339</v>
+        <v>0.734486180294695</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.4303560517324773</v>
+        <v>0.7423788945347152</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.3599108221851711</v>
+        <v>0.2722897448282364</v>
       </c>
       <c r="AA31" t="n">
-        <v>-0.4868029605159165</v>
+        <v>0.06572416650620021</v>
       </c>
       <c r="AB31" t="n">
-        <v>-0.4502593037965964</v>
+        <v>-0.5682880772441626</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.5203003334900443</v>
+        <v>0.7635527064756007</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.877713921926477</v>
+        <v>0.7831434848443628</v>
       </c>
       <c r="AE31" t="n">
         <v>1</v>
       </c>
       <c r="AF31" t="n">
-        <v>-0.5785347460318432</v>
+        <v>-0.01842179704412166</v>
       </c>
       <c r="AG31" t="n">
-        <v>-0.5514786266878889</v>
+        <v>-0.7003463535389386</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.5406891086035981</v>
+        <v>0.7899278168477188</v>
       </c>
       <c r="AI31" t="n">
-        <v>0.6859652839884123</v>
+        <v>0.7684721606399938</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0.2837050579747419</v>
+        <v>0.4514064616039258</v>
       </c>
       <c r="AK31" t="n">
-        <v>0.4612781672252277</v>
+        <v>-0.1015119466650136</v>
       </c>
       <c r="AL31" t="n">
-        <v>0.3620875407162602</v>
+        <v>-0.06529114866826462</v>
       </c>
       <c r="AM31" t="n">
-        <v>0.8394571641059387</v>
+        <v>0.9062886715914731</v>
       </c>
       <c r="AN31" t="n">
-        <v>0.695874008582882</v>
+        <v>0.8192902913675272</v>
       </c>
       <c r="AO31" t="n">
-        <v>0.4671755421597342</v>
+        <v>0.659635410601655</v>
       </c>
       <c r="AP31" t="n">
-        <v>-0.2132419235149521</v>
+        <v>-0.3035167464870285</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.6754015712930388</v>
+        <v>0.1510528926598209</v>
       </c>
     </row>
     <row r="32">
@@ -50016,124 +50288,128 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.7516828919278921</v>
+        <v>-0.3139004883786873</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.5186085628875268</v>
+        <v>-0.5074768076280668</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.7446959216495409</v>
+        <v>-0.3169149381030428</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.5263665546755094</v>
+        <v>0.2084636638642753</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.6578112370579706</v>
+        <v>-0.2889600678499274</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4535840564102694</v>
+        <v>-0.01373692037929633</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.3458349977504995</v>
+        <v>-0.2344734372498292</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.7711486777368107</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
+        <v>-0.03957491611624782</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.5002042066656511</v>
+      </c>
       <c r="K32" t="n">
-        <v>-0.2533465218587105</v>
+        <v>0.3116884588545296</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.2469494882068124</v>
+        <v>-0.5424845593792488</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.295244918755068</v>
+        <v>-0.1237907123374277</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.6946582162492814</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
+        <v>0.1772592478946846</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.3042903097250925</v>
+      </c>
       <c r="P32" t="n">
-        <v>-0.4171207084765032</v>
+        <v>0.009892892199682734</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.4135526381623549</v>
+        <v>0.2086456554402432</v>
       </c>
       <c r="R32" t="n">
-        <v>0.07520306027048317</v>
+        <v>0.1401974989201986</v>
       </c>
       <c r="S32" t="n">
-        <v>-0.6079349620042082</v>
+        <v>0.3317097890314452</v>
       </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="n">
-        <v>-0.367911804471438</v>
+        <v>-0.1863352825722825</v>
       </c>
       <c r="V32" t="n">
-        <v>0.9734253120917621</v>
+        <v>0.5230651046456434</v>
       </c>
       <c r="W32" t="n">
-        <v>0.2897379476447202</v>
+        <v>0.08084739785396945</v>
       </c>
       <c r="X32" t="n">
-        <v>-0.7412369717490314</v>
+        <v>-0.4005805701561068</v>
       </c>
       <c r="Y32" t="n">
-        <v>-0.5422513952672035</v>
+        <v>0.1876012084919818</v>
       </c>
       <c r="Z32" t="n">
-        <v>-0.3684024159859927</v>
+        <v>-0.3228698401563046</v>
       </c>
       <c r="AA32" t="n">
-        <v>-0.04257218278589192</v>
+        <v>0.1564123774011554</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.7515940776874029</v>
+        <v>0.3585110716999436</v>
       </c>
       <c r="AC32" t="n">
-        <v>-0.7935638769444324</v>
+        <v>-0.07726757480832572</v>
       </c>
       <c r="AD32" t="n">
-        <v>-0.5844155844155846</v>
+        <v>0.3308813180220324</v>
       </c>
       <c r="AE32" t="n">
-        <v>-0.5785347460318432</v>
+        <v>-0.01842179704412166</v>
       </c>
       <c r="AF32" t="n">
         <v>1</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.3940688577486515</v>
+        <v>0.05186531458869968</v>
       </c>
       <c r="AH32" t="n">
-        <v>-0.5632667727529389</v>
+        <v>0.1898043284599986</v>
       </c>
       <c r="AI32" t="n">
-        <v>-0.5247346970015025</v>
+        <v>-0.1021804054935257</v>
       </c>
       <c r="AJ32" t="n">
-        <v>-0.6144734058583593</v>
+        <v>-0.2981024524143669</v>
       </c>
       <c r="AK32" t="n">
-        <v>0.06757855954160941</v>
+        <v>-0.1485221314465014</v>
       </c>
       <c r="AL32" t="n">
-        <v>0.1991199982791138</v>
+        <v>-0.09725599925961356</v>
       </c>
       <c r="AM32" t="n">
-        <v>-0.480797746795283</v>
+        <v>0.1305675999663713</v>
       </c>
       <c r="AN32" t="n">
-        <v>-0.5355931116298799</v>
+        <v>-0.06446754579947934</v>
       </c>
       <c r="AO32" t="n">
-        <v>-0.3488774321464654</v>
+        <v>0.04166994902846715</v>
       </c>
       <c r="AP32" t="n">
-        <v>-0.3050193050193049</v>
+        <v>-0.3544608251143767</v>
       </c>
       <c r="AQ32" t="n">
-        <v>-0.8922623116821082</v>
+        <v>-0.7825578175913451</v>
       </c>
     </row>
     <row r="33">
@@ -50143,124 +50419,128 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.8270640278069428</v>
+        <v>-0.9053066855883093</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.1622391320776238</v>
+        <v>0.1925840792157015</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.7402507144349735</v>
+        <v>-0.8018349611365162</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.7615225613282612</v>
+        <v>-0.8012534839311967</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.7311357550975036</v>
+        <v>-0.8476197771222892</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6042081115753843</v>
+        <v>0.7877628027145492</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.8756122225684472</v>
+        <v>-0.8187492949743134</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.7934920551708838</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
+        <v>-0.8579578766443653</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-0.4621471965235939</v>
+      </c>
       <c r="K33" t="n">
-        <v>-0.6645957219507113</v>
+        <v>-0.7083517709631476</v>
       </c>
       <c r="L33" t="n">
-        <v>0.448231796225065</v>
+        <v>0.5946618913176427</v>
       </c>
       <c r="M33" t="n">
-        <v>0.4000297654064034</v>
+        <v>0.1200728148775816</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.8389361748905244</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
+        <v>-0.801898313057879</v>
+      </c>
+      <c r="O33" t="n">
+        <v>-0.1874570180271936</v>
+      </c>
       <c r="P33" t="n">
-        <v>-0.1241997276230546</v>
+        <v>-0.4710312122408342</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.5667161000266426</v>
+        <v>0.5818500084411341</v>
       </c>
       <c r="R33" t="n">
-        <v>-0.6157660051722887</v>
+        <v>-0.5438255522906803</v>
       </c>
       <c r="S33" t="n">
-        <v>-0.8502648400880396</v>
+        <v>-0.6514369111459998</v>
       </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="n">
-        <v>-0.6150802337341996</v>
+        <v>-0.581914679712595</v>
       </c>
       <c r="V33" t="n">
-        <v>0.5125224618460046</v>
+        <v>0.6416933129874322</v>
       </c>
       <c r="W33" t="n">
-        <v>0.531987603266566</v>
+        <v>0.6051773344371315</v>
       </c>
       <c r="X33" t="n">
-        <v>-0.7445109457945487</v>
+        <v>-0.7768886441816333</v>
       </c>
       <c r="Y33" t="n">
-        <v>-0.8437558938270838</v>
+        <v>-0.8316011686806553</v>
       </c>
       <c r="Z33" t="n">
-        <v>-0.7269153995889482</v>
+        <v>-0.6320618884443377</v>
       </c>
       <c r="AA33" t="n">
-        <v>-0.04442860052376812</v>
+        <v>-0.3955891590379937</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.487439205129787</v>
+        <v>0.5360757042495602</v>
       </c>
       <c r="AC33" t="n">
-        <v>-0.7552680820632501</v>
+        <v>-0.8441124197783987</v>
       </c>
       <c r="AD33" t="n">
-        <v>-0.6722051862524199</v>
+        <v>-0.6166579706522659</v>
       </c>
       <c r="AE33" t="n">
-        <v>-0.5514786266878889</v>
+        <v>-0.7003463535389386</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.3940688577486515</v>
+        <v>0.05186531458869968</v>
       </c>
       <c r="AG33" t="n">
         <v>1</v>
       </c>
       <c r="AH33" t="n">
-        <v>-0.937644413990657</v>
+        <v>-0.8526165060233785</v>
       </c>
       <c r="AI33" t="n">
-        <v>-0.8057018432780061</v>
+        <v>-0.8215445595518402</v>
       </c>
       <c r="AJ33" t="n">
-        <v>-0.3322288225916645</v>
+        <v>-0.4769347324406428</v>
       </c>
       <c r="AK33" t="n">
-        <v>0.07822010811397785</v>
+        <v>0.4302750443435689</v>
       </c>
       <c r="AL33" t="n">
-        <v>-0.5049392859766413</v>
+        <v>-0.1262714911551154</v>
       </c>
       <c r="AM33" t="n">
-        <v>-0.7848668956427934</v>
+        <v>-0.7901242948293201</v>
       </c>
       <c r="AN33" t="n">
-        <v>-0.7249788904684484</v>
+        <v>-0.8370694912392677</v>
       </c>
       <c r="AO33" t="n">
-        <v>-0.5355144914255502</v>
+        <v>-0.7011436192029549</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.4159564958046986</v>
+        <v>0.4124668939201082</v>
       </c>
       <c r="AQ33" t="n">
-        <v>-0.6365474975988776</v>
+        <v>-0.1054543580678093</v>
       </c>
     </row>
     <row r="34">
@@ -50270,124 +50550,128 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.9288173486821032</v>
+        <v>0.7958935356726932</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2981840310913993</v>
+        <v>-0.2263055506937729</v>
       </c>
       <c r="D34" t="n">
-        <v>0.861523130805854</v>
+        <v>0.7974215972489472</v>
       </c>
       <c r="E34" t="n">
-        <v>0.8833249117540052</v>
+        <v>0.9626376360353491</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8373146226208076</v>
+        <v>0.7305048450594464</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.7864202886526857</v>
+        <v>-0.8815640811479424</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8197790720324354</v>
+        <v>0.5583596676586848</v>
       </c>
       <c r="I34" t="n">
-        <v>0.9304665837279957</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
+        <v>0.960094964893037</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.8097104478972426</v>
+      </c>
       <c r="K34" t="n">
-        <v>0.7314013188922786</v>
+        <v>0.923592021427225</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.329211361517905</v>
+        <v>-0.7333780298847445</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.2241211217769886</v>
+        <v>0.1119284206623682</v>
       </c>
       <c r="N34" t="n">
-        <v>0.9428497357409276</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
+        <v>0.9847776847975378</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.4293450712580362</v>
+      </c>
       <c r="P34" t="n">
-        <v>0.1278866120092773</v>
+        <v>0.5953903363029135</v>
       </c>
       <c r="Q34" t="n">
-        <v>-0.5800656363494325</v>
+        <v>-0.5202375187025393</v>
       </c>
       <c r="R34" t="n">
-        <v>0.4802279323075351</v>
+        <v>0.400926123039495</v>
       </c>
       <c r="S34" t="n">
-        <v>0.9349270895500267</v>
+        <v>0.9367903028863065</v>
       </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="n">
-        <v>0.6530156661143809</v>
+        <v>0.5405278934305121</v>
       </c>
       <c r="V34" t="n">
-        <v>-0.6589710104960248</v>
+        <v>-0.6770434035896091</v>
       </c>
       <c r="W34" t="n">
-        <v>-0.4848952758084809</v>
+        <v>-0.5401779541716732</v>
       </c>
       <c r="X34" t="n">
-        <v>0.8573321504853679</v>
+        <v>0.7212843620951649</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.9528651459990005</v>
+        <v>0.9769618710708163</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.820500211684745</v>
+        <v>0.4229911118480547</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.1800354181723845</v>
+        <v>0.5321419370164923</v>
       </c>
       <c r="AB34" t="n">
-        <v>-0.6647891031510934</v>
+        <v>-0.6437691096931386</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.9067900268240786</v>
+        <v>0.9443075364179006</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.7211642112827883</v>
+        <v>0.8951652599925676</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.5406891086035981</v>
+        <v>0.7899278168477188</v>
       </c>
       <c r="AF34" t="n">
-        <v>-0.5632667727529389</v>
+        <v>0.1898043284599986</v>
       </c>
       <c r="AG34" t="n">
-        <v>-0.937644413990657</v>
+        <v>-0.8526165060233785</v>
       </c>
       <c r="AH34" t="n">
         <v>1</v>
       </c>
       <c r="AI34" t="n">
-        <v>0.8395612114080192</v>
+        <v>0.8230686627760064</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0.5575477196683664</v>
+        <v>0.5977281230217286</v>
       </c>
       <c r="AK34" t="n">
-        <v>-0.2192296551137392</v>
+        <v>-0.5658756730762989</v>
       </c>
       <c r="AL34" t="n">
-        <v>0.3381352775565416</v>
+        <v>-0.2361626058367344</v>
       </c>
       <c r="AM34" t="n">
-        <v>0.7898602780643216</v>
+        <v>0.9186766449126782</v>
       </c>
       <c r="AN34" t="n">
-        <v>0.7879529887093143</v>
+        <v>0.8617665874430535</v>
       </c>
       <c r="AO34" t="n">
-        <v>0.5619916143980472</v>
+        <v>0.7210971183013166</v>
       </c>
       <c r="AP34" t="n">
-        <v>-0.288440434685494</v>
+        <v>-0.333510934497657</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.7655266659099677</v>
+        <v>-0.03607241518271274</v>
       </c>
     </row>
     <row r="35">
@@ -50397,124 +50681,128 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.8261279826073337</v>
+        <v>0.8249971043616722</v>
       </c>
       <c r="C35" t="n">
-        <v>0.6139915167665252</v>
+        <v>0.1961712578114073</v>
       </c>
       <c r="D35" t="n">
-        <v>0.8970046715075676</v>
+        <v>0.9153073946575639</v>
       </c>
       <c r="E35" t="n">
-        <v>0.6160274742549717</v>
+        <v>0.7310469464921822</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6759520351700542</v>
+        <v>0.7199433106774052</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.5077178846234341</v>
+        <v>-0.7040054936637123</v>
       </c>
       <c r="H35" t="n">
-        <v>0.8878704135118348</v>
+        <v>0.7870491434381475</v>
       </c>
       <c r="I35" t="n">
-        <v>0.8344628599769573</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
+        <v>0.8587607647314079</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.56076143908568</v>
+      </c>
       <c r="K35" t="n">
-        <v>0.6639677025052696</v>
+        <v>0.759042496256075</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.5801389871942393</v>
+        <v>-0.7026465437362032</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.3306749415307586</v>
+        <v>-0.1066086233538852</v>
       </c>
       <c r="N35" t="n">
-        <v>0.7114272699556132</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
+        <v>0.7618316701757076</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.4104210955080782</v>
+      </c>
       <c r="P35" t="n">
-        <v>0.3913147430538095</v>
+        <v>0.628022036754867</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.7302265878102266</v>
+        <v>-0.7293852387189161</v>
       </c>
       <c r="R35" t="n">
-        <v>0.5269715063040888</v>
+        <v>0.5305119687061116</v>
       </c>
       <c r="S35" t="n">
-        <v>0.7938460931089463</v>
+        <v>0.7222643244585421</v>
       </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="n">
-        <v>0.4789015116662204</v>
+        <v>0.5544080134950242</v>
       </c>
       <c r="V35" t="n">
-        <v>-0.6785144131790151</v>
+        <v>-0.7513564399628846</v>
       </c>
       <c r="W35" t="n">
-        <v>-0.6445578114593554</v>
+        <v>-0.6973810714860776</v>
       </c>
       <c r="X35" t="n">
-        <v>0.8968529815393347</v>
+        <v>0.8910277409576459</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.737928055521709</v>
+        <v>0.7757395040256005</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.6283421033879226</v>
+        <v>0.5385560600896918</v>
       </c>
       <c r="AA35" t="n">
-        <v>-0.1596919850581284</v>
+        <v>0.210433355269576</v>
       </c>
       <c r="AB35" t="n">
-        <v>-0.7471145354880847</v>
+        <v>-0.7810179228803288</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.8100634557511246</v>
+        <v>0.8474879558381677</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.8866206949335731</v>
+        <v>0.7561053147679978</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.6859652839884123</v>
+        <v>0.7684721606399938</v>
       </c>
       <c r="AF35" t="n">
-        <v>-0.5247346970015025</v>
+        <v>-0.1021804054935257</v>
       </c>
       <c r="AG35" t="n">
-        <v>-0.8057018432780061</v>
+        <v>-0.8215445595518402</v>
       </c>
       <c r="AH35" t="n">
-        <v>0.8395612114080192</v>
+        <v>0.8230686627760064</v>
       </c>
       <c r="AI35" t="n">
         <v>1</v>
       </c>
       <c r="AJ35" t="n">
-        <v>0.650836687508574</v>
+        <v>0.7328530213983375</v>
       </c>
       <c r="AK35" t="n">
-        <v>0.1235778831857449</v>
+        <v>-0.2495617376847781</v>
       </c>
       <c r="AL35" t="n">
-        <v>0.4561438603730476</v>
+        <v>0.05731987236566797</v>
       </c>
       <c r="AM35" t="n">
-        <v>0.8856055350476347</v>
+        <v>0.8865869181503845</v>
       </c>
       <c r="AN35" t="n">
-        <v>0.9280413993981914</v>
+        <v>0.935399435876781</v>
       </c>
       <c r="AO35" t="n">
-        <v>0.4448093015130229</v>
+        <v>0.6135005122374874</v>
       </c>
       <c r="AP35" t="n">
-        <v>-0.5374496104423589</v>
+        <v>-0.5434496459635281</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.8257250806085568</v>
+        <v>0.3391793479768409</v>
       </c>
     </row>
     <row r="36">
@@ -50524,124 +50812,128 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.7198408380869323</v>
+        <v>0.7160197061818256</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5141534303982338</v>
+        <v>0.2276847662850634</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7247257141108466</v>
+        <v>0.7714403491055757</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6351602764785991</v>
+        <v>0.6162870016519733</v>
       </c>
       <c r="F36" t="n">
-        <v>0.7561135391967908</v>
+        <v>0.7239770021907248</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.6853984043790917</v>
+        <v>-0.7278065655522291</v>
       </c>
       <c r="H36" t="n">
-        <v>0.2970899516357219</v>
+        <v>0.3360476587594228</v>
       </c>
       <c r="I36" t="n">
-        <v>0.7291377928957808</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
+        <v>0.7162021250473348</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.4125843419648296</v>
+      </c>
       <c r="K36" t="n">
-        <v>0.2257345577723852</v>
+        <v>0.4682108871833718</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.1589242295072285</v>
+        <v>-0.3587053310259227</v>
       </c>
       <c r="M36" t="n">
-        <v>0.3090624837633419</v>
+        <v>0.3759925997860074</v>
       </c>
       <c r="N36" t="n">
-        <v>0.6346482834848433</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
+        <v>0.6174222782130939</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.3170079191817358</v>
+      </c>
       <c r="P36" t="n">
-        <v>0.5857849457295778</v>
+        <v>0.6819593860519062</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.3033413765775166</v>
+        <v>-0.3864116616730048</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.1166917179829468</v>
+        <v>-0.008877114704177349</v>
       </c>
       <c r="S36" t="n">
-        <v>0.66882967901946</v>
+        <v>0.5702286515631506</v>
       </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="n">
-        <v>0.06413501570459093</v>
+        <v>0.2163512965741083</v>
       </c>
       <c r="V36" t="n">
-        <v>-0.6715623205796998</v>
+        <v>-0.728679869704261</v>
       </c>
       <c r="W36" t="n">
-        <v>-0.3122623109257113</v>
+        <v>-0.4216303416938946</v>
       </c>
       <c r="X36" t="n">
-        <v>0.6849084922256276</v>
+        <v>0.7270606334612919</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.625769412502139</v>
+        <v>0.6222633448625317</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.3957936646746472</v>
+        <v>0.3719872151171949</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.3137528467460891</v>
+        <v>0.4687740349330294</v>
       </c>
       <c r="AB36" t="n">
-        <v>-0.6870549464500426</v>
+        <v>-0.7354444963991736</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.7720817212541058</v>
+        <v>0.7441094832712192</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.5756763667968369</v>
+        <v>0.5538915800144848</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.2837050579747419</v>
+        <v>0.4514064616039258</v>
       </c>
       <c r="AF36" t="n">
-        <v>-0.6144734058583593</v>
+        <v>-0.2981024524143669</v>
       </c>
       <c r="AG36" t="n">
-        <v>-0.3322288225916645</v>
+        <v>-0.4769347324406428</v>
       </c>
       <c r="AH36" t="n">
-        <v>0.5575477196683664</v>
+        <v>0.5977281230217286</v>
       </c>
       <c r="AI36" t="n">
-        <v>0.650836687508574</v>
+        <v>0.7328530213983375</v>
       </c>
       <c r="AJ36" t="n">
         <v>1</v>
       </c>
       <c r="AK36" t="n">
-        <v>-0.3417674785946802</v>
+        <v>-0.4949510944250203</v>
       </c>
       <c r="AL36" t="n">
-        <v>-0.2165228629980087</v>
+        <v>-0.3639679344907487</v>
       </c>
       <c r="AM36" t="n">
-        <v>0.4679735744411588</v>
+        <v>0.5883999741399631</v>
       </c>
       <c r="AN36" t="n">
-        <v>0.6031509634289345</v>
+        <v>0.684690653309894</v>
       </c>
       <c r="AO36" t="n">
-        <v>0.01866541778252806</v>
+        <v>0.2368138268357273</v>
       </c>
       <c r="AP36" t="n">
-        <v>-0.1178936033931779</v>
+        <v>-0.1891456529524422</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.7282446167632828</v>
+        <v>0.3901403474463384</v>
       </c>
     </row>
     <row r="37">
@@ -50651,124 +50943,128 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.2054660471668241</v>
+        <v>-0.4798886969506919</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4716068944148606</v>
+        <v>0.5920752073233532</v>
       </c>
       <c r="D37" t="n">
-        <v>0.05789293901878883</v>
+        <v>-0.2605440937467826</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.5432298837537674</v>
+        <v>-0.6885830413426246</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.5017235323391548</v>
+        <v>-0.6363818656279825</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6825528034959898</v>
+        <v>0.7970524685512718</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1997366883171651</v>
+        <v>-0.01316201373276186</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.1850746052260952</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
+        <v>-0.5321528576078323</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-0.4754649275679273</v>
+      </c>
       <c r="K37" t="n">
-        <v>0.1814354719346075</v>
+        <v>-0.3839524343982422</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.2380089397949906</v>
+        <v>0.2321345228724395</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.2159522779699776</v>
+        <v>-0.3092251785741046</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.3350052466382937</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
+        <v>-0.6142459413430768</v>
+      </c>
+      <c r="O37" t="n">
+        <v>-0.2530855341217656</v>
+      </c>
       <c r="P37" t="n">
-        <v>0.1332084344320439</v>
+        <v>-0.270651298429447</v>
       </c>
       <c r="Q37" t="n">
-        <v>-0.5830450507061467</v>
+        <v>-0.287347885566346</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1109917023219401</v>
+        <v>-0.02283624397379967</v>
       </c>
       <c r="S37" t="n">
-        <v>-0.3152610464931037</v>
+        <v>-0.5527872448065108</v>
       </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="n">
-        <v>0.02392969830909197</v>
+        <v>-0.1508378147855123</v>
       </c>
       <c r="V37" t="n">
-        <v>0.0134793321338876</v>
+        <v>0.2803478161244529</v>
       </c>
       <c r="W37" t="n">
-        <v>-0.4551899411222871</v>
+        <v>-0.1279406768348958</v>
       </c>
       <c r="X37" t="n">
-        <v>0.09338470587859035</v>
+        <v>-0.1763868988250472</v>
       </c>
       <c r="Y37" t="n">
-        <v>-0.3732100136460898</v>
+        <v>-0.6378832793521994</v>
       </c>
       <c r="Z37" t="n">
-        <v>-0.1313175037692718</v>
+        <v>-0.1786218356942189</v>
       </c>
       <c r="AA37" t="n">
-        <v>-0.9989990544119016</v>
+        <v>-0.9989200860780658</v>
       </c>
       <c r="AB37" t="n">
-        <v>-0.05618616332573062</v>
+        <v>0.1780880651384625</v>
       </c>
       <c r="AC37" t="n">
-        <v>-0.2187987734301771</v>
+        <v>-0.5415256724358342</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.3547874375934493</v>
+        <v>-0.3895715380597907</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.4612781672252277</v>
+        <v>-0.1015119466650136</v>
       </c>
       <c r="AF37" t="n">
-        <v>0.06757855954160941</v>
+        <v>-0.1485221314465014</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.07822010811397785</v>
+        <v>0.4302750443435689</v>
       </c>
       <c r="AH37" t="n">
-        <v>-0.2192296551137392</v>
+        <v>-0.5658756730762989</v>
       </c>
       <c r="AI37" t="n">
-        <v>0.1235778831857449</v>
+        <v>-0.2495617376847781</v>
       </c>
       <c r="AJ37" t="n">
-        <v>-0.3417674785946802</v>
+        <v>-0.4949510944250203</v>
       </c>
       <c r="AK37" t="n">
         <v>1</v>
       </c>
       <c r="AL37" t="n">
-        <v>0.2525173607702837</v>
+        <v>0.3905012174795618</v>
       </c>
       <c r="AM37" t="n">
-        <v>0.3291715519068221</v>
+        <v>-0.2543181561615278</v>
       </c>
       <c r="AN37" t="n">
-        <v>0.272332295084067</v>
+        <v>-0.2352679225053347</v>
       </c>
       <c r="AO37" t="n">
-        <v>0.0990342851367942</v>
+        <v>-0.2615448798102421</v>
       </c>
       <c r="AP37" t="n">
-        <v>-0.2381231000064143</v>
+        <v>-0.07211681816475697</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.01461742172912356</v>
+        <v>0.2554239551191013</v>
       </c>
     </row>
     <row r="38">
@@ -50778,124 +51074,128 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.09803373677766648</v>
+        <v>-0.08020951230180005</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1030064906053502</v>
+        <v>0.2297542567292519</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1709516287049389</v>
+        <v>-0.07004523145055923</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.01420597484778817</v>
+        <v>-0.386776704190233</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.07001481912045587</v>
+        <v>-0.1498654350707992</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0341491752946237</v>
+        <v>0.2984704684107037</v>
       </c>
       <c r="H38" t="n">
-        <v>0.7453382046403052</v>
+        <v>0.5754744749290888</v>
       </c>
       <c r="I38" t="n">
-        <v>0.08385393563930606</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
+        <v>-0.2602331729823484</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-0.4869192423212161</v>
+      </c>
       <c r="K38" t="n">
-        <v>0.4487630266512629</v>
+        <v>-0.2226875048347855</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.6062956408961417</v>
+        <v>-0.02762748355478995</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.9882895744480187</v>
+        <v>-0.9338401742646507</v>
       </c>
       <c r="N38" t="n">
-        <v>0.04419368324595085</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
+        <v>-0.3800681984054089</v>
+      </c>
+      <c r="O38" t="n">
+        <v>-0.3507064973403152</v>
+      </c>
       <c r="P38" t="n">
-        <v>-0.264868176229403</v>
+        <v>-0.441803464516149</v>
       </c>
       <c r="Q38" t="n">
-        <v>-0.3008681676059223</v>
+        <v>-0.1324784993073443</v>
       </c>
       <c r="R38" t="n">
-        <v>0.9688192740290219</v>
+        <v>0.7204655683791892</v>
       </c>
       <c r="S38" t="n">
-        <v>0.1548683882863905</v>
+        <v>-0.4268861055494482</v>
       </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="n">
-        <v>0.4269681629108042</v>
+        <v>0.1942715738536336</v>
       </c>
       <c r="V38" t="n">
-        <v>0.06216686020711568</v>
+        <v>0.2217378333820525</v>
       </c>
       <c r="W38" t="n">
-        <v>-0.2155187908501587</v>
+        <v>-0.02685448214056136</v>
       </c>
       <c r="X38" t="n">
-        <v>0.2174050286563111</v>
+        <v>0.03004850154846176</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.1254333568588204</v>
+        <v>-0.3338416301350082</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.2223114874640745</v>
+        <v>0.2304465062498564</v>
       </c>
       <c r="AA38" t="n">
-        <v>-0.2607236679980176</v>
+        <v>-0.3910626910010669</v>
       </c>
       <c r="AB38" t="n">
-        <v>-0.0565371632635992</v>
+        <v>0.1591454636646419</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.02915786376905169</v>
+        <v>-0.274235667685386</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.3283756703033529</v>
+        <v>-0.3771693848058411</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.3620875407162602</v>
+        <v>-0.06529114866826462</v>
       </c>
       <c r="AF38" t="n">
-        <v>0.1991199982791138</v>
+        <v>-0.09725599925961356</v>
       </c>
       <c r="AG38" t="n">
-        <v>-0.5049392859766413</v>
+        <v>-0.1262714911551154</v>
       </c>
       <c r="AH38" t="n">
-        <v>0.3381352775565416</v>
+        <v>-0.2361626058367344</v>
       </c>
       <c r="AI38" t="n">
-        <v>0.4561438603730476</v>
+        <v>0.05731987236566797</v>
       </c>
       <c r="AJ38" t="n">
-        <v>-0.2165228629980087</v>
+        <v>-0.3639679344907487</v>
       </c>
       <c r="AK38" t="n">
-        <v>0.2525173607702837</v>
+        <v>0.3905012174795618</v>
       </c>
       <c r="AL38" t="n">
         <v>1</v>
       </c>
       <c r="AM38" t="n">
-        <v>0.4062707209104897</v>
+        <v>-0.1484440369813514</v>
       </c>
       <c r="AN38" t="n">
-        <v>0.2722473808949155</v>
+        <v>-0.0954736479290641</v>
       </c>
       <c r="AO38" t="n">
-        <v>0.4825547284411972</v>
+        <v>0.132531046064991</v>
       </c>
       <c r="AP38" t="n">
-        <v>-0.6082674207491202</v>
+        <v>-0.4087574525670391</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.07515679907672203</v>
+        <v>0.2200672705152256</v>
       </c>
     </row>
     <row r="39">
@@ -50905,124 +51205,128 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.7777087104848486</v>
+        <v>0.7399541557733065</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6291879975343828</v>
+        <v>0.04076054753135585</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8684772063504029</v>
+        <v>0.845353752810346</v>
       </c>
       <c r="E39" t="n">
-        <v>0.5003496248333925</v>
+        <v>0.8302860589607656</v>
       </c>
       <c r="F39" t="n">
-        <v>0.5283795751255416</v>
+        <v>0.594255913099766</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.3744979885594087</v>
+        <v>-0.7080794465565231</v>
       </c>
       <c r="H39" t="n">
-        <v>0.8527556414476144</v>
+        <v>0.6293074618547606</v>
       </c>
       <c r="I39" t="n">
-        <v>0.7520002621071097</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
+        <v>0.8855838958724332</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.7518542084740272</v>
+      </c>
       <c r="K39" t="n">
-        <v>0.7876665620306454</v>
+        <v>0.923331088533039</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.4682579293934087</v>
+        <v>-0.7523915710120702</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.2668650741634374</v>
+        <v>0.03678548134774329</v>
       </c>
       <c r="N39" t="n">
-        <v>0.6785487371773312</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
+        <v>0.8863148661460448</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.4324870310723507</v>
+      </c>
       <c r="P39" t="n">
-        <v>0.3051988694522556</v>
+        <v>0.633711227952509</v>
       </c>
       <c r="Q39" t="n">
-        <v>-0.8579993324240816</v>
+        <v>-0.7284670843593581</v>
       </c>
       <c r="R39" t="n">
-        <v>0.42002029019538</v>
+        <v>0.4126187213660706</v>
       </c>
       <c r="S39" t="n">
-        <v>0.7571049846109561</v>
+        <v>0.8793976292490019</v>
       </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="n">
-        <v>0.5129681234918254</v>
+        <v>0.5289764102018851</v>
       </c>
       <c r="V39" t="n">
-        <v>-0.6067407221812943</v>
+        <v>-0.6794967784393672</v>
       </c>
       <c r="W39" t="n">
-        <v>-0.8507357942870819</v>
+        <v>-0.7697224048294193</v>
       </c>
       <c r="X39" t="n">
-        <v>0.8824939594378457</v>
+        <v>0.7919225920958669</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.6763326090948211</v>
+        <v>0.8726894931108979</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.588465710245157</v>
+        <v>0.3628538040104988</v>
       </c>
       <c r="AA39" t="n">
-        <v>-0.3655149544834619</v>
+        <v>0.2151628772945886</v>
       </c>
       <c r="AB39" t="n">
-        <v>-0.6295460297488719</v>
+        <v>-0.6792392103462571</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.731328923831696</v>
+        <v>0.8699358728514236</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.9576810682724014</v>
+        <v>0.9046491757990115</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.8394571641059387</v>
+        <v>0.9062886715914731</v>
       </c>
       <c r="AF39" t="n">
-        <v>-0.480797746795283</v>
+        <v>0.1305675999663713</v>
       </c>
       <c r="AG39" t="n">
-        <v>-0.7848668956427934</v>
+        <v>-0.7901242948293201</v>
       </c>
       <c r="AH39" t="n">
-        <v>0.7898602780643216</v>
+        <v>0.9186766449126782</v>
       </c>
       <c r="AI39" t="n">
-        <v>0.8856055350476347</v>
+        <v>0.8865869181503845</v>
       </c>
       <c r="AJ39" t="n">
-        <v>0.4679735744411588</v>
+        <v>0.5883999741399631</v>
       </c>
       <c r="AK39" t="n">
-        <v>0.3291715519068221</v>
+        <v>-0.2543181561615278</v>
       </c>
       <c r="AL39" t="n">
-        <v>0.4062707209104897</v>
+        <v>-0.1484440369813514</v>
       </c>
       <c r="AM39" t="n">
         <v>1</v>
       </c>
       <c r="AN39" t="n">
-        <v>0.9182903607223319</v>
+        <v>0.9248773335070823</v>
       </c>
       <c r="AO39" t="n">
-        <v>0.4915986345286546</v>
+        <v>0.6727556339270555</v>
       </c>
       <c r="AP39" t="n">
-        <v>-0.4302328279539691</v>
+        <v>-0.434912796502761</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.7256680220739333</v>
+        <v>0.08111457313011246</v>
       </c>
     </row>
     <row r="40">
@@ -51032,124 +51336,128 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.8131393684905133</v>
+        <v>0.858197022778817</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7056627910414573</v>
+        <v>0.1598061892445151</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9316341835360638</v>
+        <v>0.9355186437344714</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5862183389394523</v>
+        <v>0.800358430820586</v>
       </c>
       <c r="F40" t="n">
-        <v>0.6029896885881146</v>
+        <v>0.727715462046156</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.4654907910473679</v>
+        <v>-0.7426267344993955</v>
       </c>
       <c r="H40" t="n">
-        <v>0.7913884123826617</v>
+        <v>0.7198513923355291</v>
       </c>
       <c r="I40" t="n">
-        <v>0.8323106733468402</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
+        <v>0.907075941230181</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5875523651294379</v>
+      </c>
       <c r="K40" t="n">
-        <v>0.7287720729999042</v>
+        <v>0.8211453599365757</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.4992371431560135</v>
+        <v>-0.6861067581475135</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.1306333634195643</v>
+        <v>0.07875328812137213</v>
       </c>
       <c r="N40" t="n">
-        <v>0.6964372643006035</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
+        <v>0.8235962665399426</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.3127486288292973</v>
+      </c>
       <c r="P40" t="n">
-        <v>0.3347692458343794</v>
+        <v>0.6207764971368006</v>
       </c>
       <c r="Q40" t="n">
-        <v>-0.8828846945553851</v>
+        <v>-0.8128170608836445</v>
       </c>
       <c r="R40" t="n">
-        <v>0.314972373115476</v>
+        <v>0.3592870948985846</v>
       </c>
       <c r="S40" t="n">
-        <v>0.7244665496573726</v>
+        <v>0.7416109395477883</v>
       </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="n">
-        <v>0.4795233546870978</v>
+        <v>0.5304835850665559</v>
       </c>
       <c r="V40" t="n">
-        <v>-0.6705989143889048</v>
+        <v>-0.7552604302174398</v>
       </c>
       <c r="W40" t="n">
-        <v>-0.7767015350140761</v>
+        <v>-0.7819777297952475</v>
       </c>
       <c r="X40" t="n">
-        <v>0.9317971738894916</v>
+        <v>0.900958843258211</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.7206997169125868</v>
+        <v>0.8423290523231945</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.664308263827599</v>
+        <v>0.5385711730751963</v>
       </c>
       <c r="AA40" t="n">
-        <v>-0.3119273418686718</v>
+        <v>0.1923071715494108</v>
       </c>
       <c r="AB40" t="n">
-        <v>-0.752732759367176</v>
+        <v>-0.7600021827897964</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.8101808068244152</v>
+        <v>0.8970289776492294</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.8944676838894946</v>
+        <v>0.7749009242637702</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.695874008582882</v>
+        <v>0.8192902913675272</v>
       </c>
       <c r="AF40" t="n">
-        <v>-0.5355931116298799</v>
+        <v>-0.06446754579947934</v>
       </c>
       <c r="AG40" t="n">
-        <v>-0.7249788904684484</v>
+        <v>-0.8370694912392677</v>
       </c>
       <c r="AH40" t="n">
-        <v>0.7879529887093143</v>
+        <v>0.8617665874430535</v>
       </c>
       <c r="AI40" t="n">
-        <v>0.9280413993981914</v>
+        <v>0.935399435876781</v>
       </c>
       <c r="AJ40" t="n">
-        <v>0.6031509634289345</v>
+        <v>0.684690653309894</v>
       </c>
       <c r="AK40" t="n">
-        <v>0.272332295084067</v>
+        <v>-0.2352679225053347</v>
       </c>
       <c r="AL40" t="n">
-        <v>0.2722473808949155</v>
+        <v>-0.0954736479290641</v>
       </c>
       <c r="AM40" t="n">
-        <v>0.9182903607223319</v>
+        <v>0.9248773335070823</v>
       </c>
       <c r="AN40" t="n">
         <v>1</v>
       </c>
       <c r="AO40" t="n">
-        <v>0.4154394604320081</v>
+        <v>0.637793563115984</v>
       </c>
       <c r="AP40" t="n">
-        <v>-0.4572638130981948</v>
+        <v>-0.4649843055259139</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.8004467240880485</v>
+        <v>0.2137698054730938</v>
       </c>
     </row>
     <row r="41">
@@ -51159,124 +51467,128 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.4172549752175861</v>
+        <v>0.6084157171640199</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2328147831768357</v>
+        <v>-0.07948461523532933</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4243725950727437</v>
+        <v>0.5940444183376378</v>
       </c>
       <c r="E41" t="n">
-        <v>0.3791913360996117</v>
+        <v>0.6456982230899645</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2716772010710918</v>
+        <v>0.5130056079152677</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.3028247488099634</v>
+        <v>-0.5887232978770267</v>
       </c>
       <c r="H41" t="n">
-        <v>0.6049907110215602</v>
+        <v>0.6216323310035358</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4294726001754898</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
+        <v>0.6795532357023847</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.4923596749123048</v>
+      </c>
       <c r="K41" t="n">
-        <v>0.7283539047208336</v>
+        <v>0.7506894687684487</v>
       </c>
       <c r="L41" t="n">
-        <v>0.1545559586450614</v>
+        <v>-0.3354834374514534</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.429684898594193</v>
+        <v>-0.1936036044085506</v>
       </c>
       <c r="N41" t="n">
-        <v>0.4682405366167162</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
+        <v>0.6733251335674071</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.2446136206371771</v>
+      </c>
       <c r="P41" t="n">
-        <v>-0.4215288351375344</v>
+        <v>0.1131134180651483</v>
       </c>
       <c r="Q41" t="n">
-        <v>-0.4695226935843154</v>
+        <v>-0.5279510007649161</v>
       </c>
       <c r="R41" t="n">
-        <v>0.533942504616808</v>
+        <v>0.52471543642055</v>
       </c>
       <c r="S41" t="n">
-        <v>0.4168144538148484</v>
+        <v>0.586122211849499</v>
       </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="n">
-        <v>0.9789391094825136</v>
+        <v>0.8724544154987739</v>
       </c>
       <c r="V41" t="n">
-        <v>-0.3234413550635338</v>
+        <v>-0.4974866523108835</v>
       </c>
       <c r="W41" t="n">
-        <v>-0.2617742336609839</v>
+        <v>-0.413449211796154</v>
       </c>
       <c r="X41" t="n">
-        <v>0.4432952834611664</v>
+        <v>0.5691293670194169</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.4769675000115179</v>
+        <v>0.6782603682764379</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.6207812080216921</v>
+        <v>0.5532027060880168</v>
       </c>
       <c r="AA41" t="n">
-        <v>-0.1216070033877768</v>
+        <v>0.2320075263286719</v>
       </c>
       <c r="AB41" t="n">
-        <v>-0.3598093687926041</v>
+        <v>-0.4722745548025645</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.3920974697974779</v>
+        <v>0.6583453916414186</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.4614697802008931</v>
+        <v>0.5979458127617077</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.4671755421597342</v>
+        <v>0.659635410601655</v>
       </c>
       <c r="AF41" t="n">
-        <v>-0.3488774321464654</v>
+        <v>0.04166994902846715</v>
       </c>
       <c r="AG41" t="n">
-        <v>-0.5355144914255502</v>
+        <v>-0.7011436192029549</v>
       </c>
       <c r="AH41" t="n">
-        <v>0.5619916143980472</v>
+        <v>0.7210971183013166</v>
       </c>
       <c r="AI41" t="n">
-        <v>0.4448093015130229</v>
+        <v>0.6135005122374874</v>
       </c>
       <c r="AJ41" t="n">
-        <v>0.01866541778252806</v>
+        <v>0.2368138268357273</v>
       </c>
       <c r="AK41" t="n">
-        <v>0.0990342851367942</v>
+        <v>-0.2615448798102421</v>
       </c>
       <c r="AL41" t="n">
-        <v>0.4825547284411972</v>
+        <v>0.132531046064991</v>
       </c>
       <c r="AM41" t="n">
-        <v>0.4915986345286546</v>
+        <v>0.6727556339270555</v>
       </c>
       <c r="AN41" t="n">
-        <v>0.4154394604320081</v>
+        <v>0.637793563115984</v>
       </c>
       <c r="AO41" t="n">
         <v>1</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.1736376608959501</v>
+        <v>0.0006702271512534512</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.3340016301425108</v>
+        <v>-0.01085166910499605</v>
       </c>
     </row>
     <row r="42">
@@ -51286,124 +51598,128 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.1572963857103359</v>
+        <v>-0.2226202209724706</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.194747079037545</v>
+        <v>-0.08378002781617358</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.26509711423948</v>
+        <v>-0.3300611981087113</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.06771634595284934</v>
+        <v>-0.2276284719610393</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.04630198139983461</v>
+        <v>-0.1364910605120722</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0301850894305248</v>
+        <v>0.1759582184750587</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.5616192764028395</v>
+        <v>-0.545196633253722</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.165503515243131</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
+        <v>-0.2748578696482656</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-0.2165106547787137</v>
+      </c>
       <c r="K42" t="n">
-        <v>-0.2769153544190131</v>
+        <v>-0.3273657494794036</v>
       </c>
       <c r="L42" t="n">
-        <v>0.9981748005266036</v>
+        <v>0.8179718963743197</v>
       </c>
       <c r="M42" t="n">
-        <v>0.5701032659622709</v>
+        <v>0.4824974069307159</v>
       </c>
       <c r="N42" t="n">
-        <v>-0.03769759586464962</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
+        <v>-0.2200623491159743</v>
+      </c>
+      <c r="O42" t="n">
+        <v>-0.1223386948586814</v>
+      </c>
       <c r="P42" t="n">
-        <v>-0.2111744183567617</v>
+        <v>-0.2975209199022847</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.3530714867998819</v>
+        <v>0.3909666736931074</v>
       </c>
       <c r="R42" t="n">
-        <v>-0.5753536487076232</v>
+        <v>-0.5924300266640755</v>
       </c>
       <c r="S42" t="n">
-        <v>-0.2040921841906638</v>
+        <v>-0.2708119700813783</v>
       </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="n">
-        <v>0.1405037507522444</v>
+        <v>0.06820142379459991</v>
       </c>
       <c r="V42" t="n">
-        <v>-0.0788217446598987</v>
+        <v>0.03114027217385717</v>
       </c>
       <c r="W42" t="n">
-        <v>0.3482974878528179</v>
+        <v>0.3935514544057629</v>
       </c>
       <c r="X42" t="n">
-        <v>-0.2812478827220384</v>
+        <v>-0.3324321369206413</v>
       </c>
       <c r="Y42" t="n">
-        <v>-0.1789327357104222</v>
+        <v>-0.2701367172415412</v>
       </c>
       <c r="Z42" t="n">
-        <v>-0.1668160094262909</v>
+        <v>-0.1617744925552527</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.2496800990415833</v>
+        <v>0.0899984130366875</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.1236372267232437</v>
+        <v>0.1997124969738817</v>
       </c>
       <c r="AC42" t="n">
-        <v>-0.1204572447075801</v>
+        <v>-0.2457781811093449</v>
       </c>
       <c r="AD42" t="n">
-        <v>-0.3562653562653563</v>
+        <v>-0.3118043286228914</v>
       </c>
       <c r="AE42" t="n">
-        <v>-0.2132419235149521</v>
+        <v>-0.3035167464870285</v>
       </c>
       <c r="AF42" t="n">
-        <v>-0.3050193050193049</v>
+        <v>-0.3544608251143767</v>
       </c>
       <c r="AG42" t="n">
-        <v>0.4159564958046986</v>
+        <v>0.4124668939201082</v>
       </c>
       <c r="AH42" t="n">
-        <v>-0.288440434685494</v>
+        <v>-0.333510934497657</v>
       </c>
       <c r="AI42" t="n">
-        <v>-0.5374496104423589</v>
+        <v>-0.5434496459635281</v>
       </c>
       <c r="AJ42" t="n">
-        <v>-0.1178936033931779</v>
+        <v>-0.1891456529524422</v>
       </c>
       <c r="AK42" t="n">
-        <v>-0.2381231000064143</v>
+        <v>-0.07211681816475697</v>
       </c>
       <c r="AL42" t="n">
-        <v>-0.6082674207491202</v>
+        <v>-0.4087574525670391</v>
       </c>
       <c r="AM42" t="n">
-        <v>-0.4302328279539691</v>
+        <v>-0.434912796502761</v>
       </c>
       <c r="AN42" t="n">
-        <v>-0.4572638130981948</v>
+        <v>-0.4649843055259139</v>
       </c>
       <c r="AO42" t="n">
-        <v>0.1736376608959501</v>
+        <v>0.0006702271512534512</v>
       </c>
       <c r="AP42" t="n">
         <v>1</v>
       </c>
       <c r="AQ42" t="n">
-        <v>-0.1414540143142478</v>
+        <v>-0.03332088924274792</v>
       </c>
     </row>
     <row r="43">
@@ -51413,121 +51729,125 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.8792509603853376</v>
+        <v>0.2911620858227987</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6473778059365618</v>
+        <v>0.7117983453687368</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9246112111869763</v>
+        <v>0.4759232623132608</v>
       </c>
       <c r="E43" t="n">
-        <v>0.6274975996823349</v>
+        <v>-0.1843858827050776</v>
       </c>
       <c r="F43" t="n">
-        <v>0.7431697037621851</v>
+        <v>0.2360865756601652</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.5317483854977069</v>
+        <v>0.001102678843193455</v>
       </c>
       <c r="H43" t="n">
-        <v>0.647945360452758</v>
+        <v>0.4094149849431925</v>
       </c>
       <c r="I43" t="n">
-        <v>0.916641825728661</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
+        <v>0.1726319444480972</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-0.3630712407933845</v>
+      </c>
       <c r="K43" t="n">
-        <v>0.4514203464790227</v>
+        <v>-0.1493345080603625</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.2005127245234067</v>
+        <v>0.156623786531491</v>
       </c>
       <c r="M43" t="n">
-        <v>0.04681298478145776</v>
+        <v>-0.06365434880340545</v>
       </c>
       <c r="N43" t="n">
-        <v>0.782802128906442</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
+        <v>-0.09091404672441596</v>
+      </c>
+      <c r="O43" t="n">
+        <v>-0.1932594258223564</v>
+      </c>
       <c r="P43" t="n">
-        <v>0.5205910468538311</v>
+        <v>0.08774019994914303</v>
       </c>
       <c r="Q43" t="n">
-        <v>-0.6107360250554803</v>
+        <v>-0.3945429049407159</v>
       </c>
       <c r="R43" t="n">
-        <v>0.2006188994381812</v>
+        <v>0.09125465325143313</v>
       </c>
       <c r="S43" t="n">
-        <v>0.7699605333694098</v>
+        <v>-0.1564821742728787</v>
       </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="n">
-        <v>0.3731733646504372</v>
+        <v>0.1860941668407083</v>
       </c>
       <c r="V43" t="n">
-        <v>-0.9680092254059087</v>
+        <v>-0.5598580541501221</v>
       </c>
       <c r="W43" t="n">
-        <v>-0.4652735788462645</v>
+        <v>-0.220414379944786</v>
       </c>
       <c r="X43" t="n">
-        <v>0.9221142126131732</v>
+        <v>0.5586917196427087</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.6951960804143834</v>
+        <v>-0.1416963873099458</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.5217355562572813</v>
+        <v>0.3791204169741879</v>
       </c>
       <c r="AA43" t="n">
-        <v>-0.04775944829459962</v>
+        <v>-0.2707260549297695</v>
       </c>
       <c r="AB43" t="n">
-        <v>-0.8839924449973019</v>
+        <v>-0.5549713511781714</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.9173658650079184</v>
+        <v>0.2037643554938546</v>
       </c>
       <c r="AD43" t="n">
-        <v>0.7948064443461483</v>
+        <v>-0.1527948540393737</v>
       </c>
       <c r="AE43" t="n">
-        <v>0.6754015712930388</v>
+        <v>0.1510528926598209</v>
       </c>
       <c r="AF43" t="n">
-        <v>-0.8922623116821082</v>
+        <v>-0.7825578175913451</v>
       </c>
       <c r="AG43" t="n">
-        <v>-0.6365474975988776</v>
+        <v>-0.1054543580678093</v>
       </c>
       <c r="AH43" t="n">
-        <v>0.7655266659099677</v>
+        <v>-0.03607241518271274</v>
       </c>
       <c r="AI43" t="n">
-        <v>0.8257250806085568</v>
+        <v>0.3391793479768409</v>
       </c>
       <c r="AJ43" t="n">
-        <v>0.7282446167632828</v>
+        <v>0.3901403474463384</v>
       </c>
       <c r="AK43" t="n">
-        <v>0.01461742172912356</v>
+        <v>0.2554239551191013</v>
       </c>
       <c r="AL43" t="n">
-        <v>0.07515679907672203</v>
+        <v>0.2200672705152256</v>
       </c>
       <c r="AM43" t="n">
-        <v>0.7256680220739333</v>
+        <v>0.08111457313011246</v>
       </c>
       <c r="AN43" t="n">
-        <v>0.8004467240880485</v>
+        <v>0.2137698054730938</v>
       </c>
       <c r="AO43" t="n">
-        <v>0.3340016301425108</v>
+        <v>-0.01085166910499605</v>
       </c>
       <c r="AP43" t="n">
-        <v>-0.1414540143142478</v>
+        <v>-0.03332088924274792</v>
       </c>
       <c r="AQ43" t="n">
         <v>1</v>
